--- a/datasets/ticker_lists/moex_stocks.xlsx
+++ b/datasets/ticker_lists/moex_stocks.xlsx
@@ -154,7 +154,7 @@
     <t>OBLIGATION_PROGRAM_DATE</t>
   </si>
   <si>
-    <t>03.05.2024 00:00:00</t>
+    <t>08.05.2024 00:00:00</t>
   </si>
   <si>
     <t>5771</t>
@@ -1228,27 +1228,33 @@
     <t>1296</t>
   </si>
   <si>
-    <t>1581</t>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1844</t>
   </si>
   <si>
     <t>1845</t>
   </si>
   <si>
-    <t>1846</t>
+    <t>1848</t>
   </si>
   <si>
     <t>1849</t>
   </si>
   <si>
-    <t>1850</t>
-  </si>
-  <si>
-    <t>1856</t>
+    <t>1855</t>
+  </si>
+  <si>
+    <t>2419</t>
   </si>
   <si>
     <t>2421</t>
   </si>
   <si>
+    <t>2422</t>
+  </si>
+  <si>
     <t>2423</t>
   </si>
   <si>
@@ -1258,19 +1264,19 @@
     <t>2425</t>
   </si>
   <si>
-    <t>2426</t>
-  </si>
-  <si>
-    <t>2427</t>
-  </si>
-  <si>
-    <t>2431</t>
+    <t>2429</t>
+  </si>
+  <si>
+    <t>2430</t>
   </si>
   <si>
     <t>2432</t>
   </si>
   <si>
-    <t>2434</t>
+    <t>2435</t>
+  </si>
+  <si>
+    <t>2436</t>
   </si>
   <si>
     <t>2437</t>
@@ -1282,18 +1288,18 @@
     <t>2440</t>
   </si>
   <si>
-    <t>2441</t>
-  </si>
-  <si>
-    <t>2442</t>
-  </si>
-  <si>
-    <t>2453</t>
+    <t>2451</t>
+  </si>
+  <si>
+    <t>2452</t>
   </si>
   <si>
     <t>2454</t>
   </si>
   <si>
+    <t>2455</t>
+  </si>
+  <si>
     <t>2456</t>
   </si>
   <si>
@@ -1312,10 +1318,10 @@
     <t>2461</t>
   </si>
   <si>
-    <t>2462</t>
-  </si>
-  <si>
-    <t>2463</t>
+    <t>2484</t>
+  </si>
+  <si>
+    <t>2485</t>
   </si>
   <si>
     <t>2486</t>
@@ -1336,13 +1342,13 @@
     <t>2491</t>
   </si>
   <si>
-    <t>2492</t>
-  </si>
-  <si>
-    <t>2493</t>
-  </si>
-  <si>
-    <t>2514</t>
+    <t>2512</t>
+  </si>
+  <si>
+    <t>2515</t>
+  </si>
+  <si>
+    <t>2516</t>
   </si>
   <si>
     <t>2517</t>
@@ -1363,19 +1369,19 @@
     <t>2522</t>
   </si>
   <si>
-    <t>2523</t>
-  </si>
-  <si>
     <t>2524</t>
   </si>
   <si>
-    <t>2526</t>
-  </si>
-  <si>
-    <t>2527</t>
-  </si>
-  <si>
-    <t>2530</t>
+    <t>2525</t>
+  </si>
+  <si>
+    <t>2528</t>
+  </si>
+  <si>
+    <t>2533</t>
+  </si>
+  <si>
+    <t>2534</t>
   </si>
   <si>
     <t>2535</t>
@@ -1396,19 +1402,19 @@
     <t>2540</t>
   </si>
   <si>
-    <t>2541</t>
-  </si>
-  <si>
-    <t>2542</t>
-  </si>
-  <si>
-    <t>2546</t>
-  </si>
-  <si>
-    <t>2552</t>
-  </si>
-  <si>
-    <t>2557</t>
+    <t>2544</t>
+  </si>
+  <si>
+    <t>2550</t>
+  </si>
+  <si>
+    <t>2555</t>
+  </si>
+  <si>
+    <t>2563</t>
+  </si>
+  <si>
+    <t>2564</t>
   </si>
   <si>
     <t>2565</t>
@@ -1420,12 +1426,12 @@
     <t>2567</t>
   </si>
   <si>
-    <t>2568</t>
-  </si>
-  <si>
     <t>2569</t>
   </si>
   <si>
+    <t>2570</t>
+  </si>
+  <si>
     <t>2571</t>
   </si>
   <si>
@@ -1435,79 +1441,79 @@
     <t>2573</t>
   </si>
   <si>
-    <t>2574</t>
-  </si>
-  <si>
-    <t>2575</t>
-  </si>
-  <si>
-    <t>2581</t>
-  </si>
-  <si>
-    <t>2585</t>
-  </si>
-  <si>
-    <t>2586</t>
-  </si>
-  <si>
-    <t>2592</t>
+    <t>2579</t>
+  </si>
+  <si>
+    <t>2583</t>
+  </si>
+  <si>
+    <t>2584</t>
+  </si>
+  <si>
+    <t>2590</t>
+  </si>
+  <si>
+    <t>2591</t>
   </si>
   <si>
     <t>2593</t>
   </si>
   <si>
-    <t>2595</t>
-  </si>
-  <si>
-    <t>2596</t>
-  </si>
-  <si>
-    <t>2606</t>
+    <t>2594</t>
+  </si>
+  <si>
+    <t>2604</t>
+  </si>
+  <si>
+    <t>2605</t>
   </si>
   <si>
     <t>2607</t>
   </si>
   <si>
-    <t>2609</t>
+    <t>2612</t>
   </si>
   <si>
     <t>2614</t>
   </si>
   <si>
-    <t>2616</t>
-  </si>
-  <si>
-    <t>2617</t>
-  </si>
-  <si>
-    <t>2621</t>
-  </si>
-  <si>
-    <t>2627</t>
-  </si>
-  <si>
-    <t>2636</t>
+    <t>2615</t>
+  </si>
+  <si>
+    <t>2619</t>
+  </si>
+  <si>
+    <t>2625</t>
+  </si>
+  <si>
+    <t>2634</t>
+  </si>
+  <si>
+    <t>2635</t>
   </si>
   <si>
     <t>2637</t>
   </si>
   <si>
+    <t>2638</t>
+  </si>
+  <si>
     <t>2639</t>
   </si>
   <si>
-    <t>2640</t>
-  </si>
-  <si>
     <t>2641</t>
   </si>
   <si>
-    <t>2643</t>
-  </si>
-  <si>
-    <t>2644</t>
-  </si>
-  <si>
-    <t>3008</t>
+    <t>2642</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>3013</t>
   </si>
   <si>
     <t>3014</t>
@@ -1519,10 +1525,10 @@
     <t>3016</t>
   </si>
   <si>
-    <t>3017</t>
-  </si>
-  <si>
-    <t>3018</t>
+    <t>3024</t>
+  </si>
+  <si>
+    <t>3025</t>
   </si>
   <si>
     <t>3026</t>
@@ -1558,54 +1564,54 @@
     <t>3036</t>
   </si>
   <si>
-    <t>3037</t>
-  </si>
-  <si>
     <t>3038</t>
   </si>
   <si>
+    <t>3039</t>
+  </si>
+  <si>
     <t>3040</t>
   </si>
   <si>
     <t>3041</t>
   </si>
   <si>
-    <t>3042</t>
-  </si>
-  <si>
     <t>3043</t>
   </si>
   <si>
+    <t>3044</t>
+  </si>
+  <si>
     <t>3045</t>
   </si>
   <si>
     <t>3046</t>
   </si>
   <si>
-    <t>3047</t>
-  </si>
-  <si>
-    <t>3048</t>
+    <t>3057</t>
+  </si>
+  <si>
+    <t>3058</t>
   </si>
   <si>
     <t>3059</t>
   </si>
   <si>
-    <t>3060</t>
-  </si>
-  <si>
     <t>3061</t>
   </si>
   <si>
-    <t>3063</t>
-  </si>
-  <si>
-    <t>3087</t>
+    <t>3085</t>
+  </si>
+  <si>
+    <t>3086</t>
   </si>
   <si>
     <t>3088</t>
   </si>
   <si>
+    <t>3089</t>
+  </si>
+  <si>
     <t>3090</t>
   </si>
   <si>
@@ -1615,10 +1621,10 @@
     <t>3092</t>
   </si>
   <si>
-    <t>3093</t>
-  </si>
-  <si>
-    <t>3094</t>
+    <t>3095</t>
+  </si>
+  <si>
+    <t>3096</t>
   </si>
   <si>
     <t>3097</t>
@@ -1630,10 +1636,10 @@
     <t>3099</t>
   </si>
   <si>
-    <t>3100</t>
-  </si>
-  <si>
-    <t>3101</t>
+    <t>3103</t>
+  </si>
+  <si>
+    <t>3104</t>
   </si>
   <si>
     <t>3105</t>
@@ -1642,33 +1648,33 @@
     <t>3106</t>
   </si>
   <si>
-    <t>3107</t>
-  </si>
-  <si>
-    <t>3108</t>
+    <t>3125</t>
+  </si>
+  <si>
+    <t>3126</t>
   </si>
   <si>
     <t>3127</t>
   </si>
   <si>
-    <t>3128</t>
-  </si>
-  <si>
-    <t>3129</t>
+    <t>3130</t>
+  </si>
+  <si>
+    <t>3131</t>
   </si>
   <si>
     <t>3132</t>
   </si>
   <si>
-    <t>3133</t>
-  </si>
-  <si>
-    <t>3134</t>
+    <t>3137</t>
   </si>
   <si>
     <t>3139</t>
   </si>
   <si>
+    <t>3140</t>
+  </si>
+  <si>
     <t>3141</t>
   </si>
   <si>
@@ -1684,19 +1690,13 @@
     <t>3145</t>
   </si>
   <si>
-    <t>3146</t>
-  </si>
-  <si>
-    <t>3147</t>
-  </si>
-  <si>
-    <t>3186</t>
-  </si>
-  <si>
-    <t>3287</t>
-  </si>
-  <si>
-    <t>3302</t>
+    <t>3184</t>
+  </si>
+  <si>
+    <t>3281</t>
+  </si>
+  <si>
+    <t>3296</t>
   </si>
   <si>
     <t>Акции</t>
@@ -6115,7 +6115,7 @@
     <t>179768227</t>
   </si>
   <si>
-    <t>30029063</t>
+    <t>34629063</t>
   </si>
   <si>
     <t>11174330000</t>
@@ -6484,7 +6484,7 @@
     <t>52940000</t>
   </si>
   <si>
-    <t>872900000</t>
+    <t>994245000</t>
   </si>
   <si>
     <t>282215500</t>
@@ -7864,7 +7864,7 @@
     <t>09.06.2014 Включение в Третий уровень 20.10.2011 Включение в Перечень внесписочных ценных бумаг</t>
   </si>
   <si>
-    <t>09.06.2014 Включение в Третий уровень 14.08.2006 Включение в Перечень внесписочных ценных бумаг 14.08.2006 Включение в Перечень внесписочных ценных бумаг</t>
+    <t>09.06.2014 Включение в Третий уровень 14.08.2006 Включение в Перечень внесписочных ценных бумаг</t>
   </si>
   <si>
     <t>09.06.2014 Включение в Третий уровень 13.04.2012 Включение в Перечень внесписочных ценных бумаг</t>
@@ -7969,7 +7969,7 @@
     <t>Облигация биржевая, 4B02-03-40046-N, RU000A101PG7 Облигация биржевая, 4B02-04-40046-N, RU000A101PF9 Облигация биржевая, 4B02-05-40046-N, RU000A101PD4 Облигация биржевая, 4B02-06-40046-N, RU000A101PB8 Облигация биржевая, 4B02-07-40046-N, RU000A101PC6</t>
   </si>
   <si>
-    <t>Облигация биржевая, 4B023001000B, RU000A0JV3Q3 Облигация биржевая, 4B021101000B002P Облигация биржевая, 4B021201000B002P Облигация биржевая, 4B021301000B002P Облигация биржевая, 4B021401000B002P Облигация биржевая, 4B021501000B002P Облигация корпоративная, 40901000B, RU000A1014J2 Облигация биржевая, 4B02-62-01000-B-001P, RU000A101KE3 Облигация биржевая, 4B02-66-01000-B-001P, RU000A101MW1 Облигация биржевая, 4B02-68-01000-B-001P, RU000A101NX7 Облигация биржевая, 4B02-69-01000-B-001P, RU000A101P01 Облигация биржевая, 4B02-71-01000-B-001P, RU000A101PS2 Облигация биржевая, 4B02-79-01000-B-001P, RU000A101SN7 Облигация биржевая, 4B02-81-01000-B-001P, RU000A101TF1 Облигация биржевая, 4B02-83-01000-B-001P, RU000A101TH7 Облигация биржевая, 4B02-96-01000-B-001P, RU000A101VF7 Облигация биржевая, 4B02-97-01000-B-001P, RU000A101VG5 Облигация биржевая, 4B02-137-01000-B-001P, RU000A1027F2 Облигация биржевая, 4B02-138-01000-B-001P, RU000A1027G0 Облигация биржевая, 4B02-141-01000-B-001P, RU000A1027K2 Облигация биржевая, 4B02-142-01000-B-001P, RU000A1027L0 Облигация корпоративная, 4-01-01000-B-002P, RU000A102879 Облигация корпоративная, 4-02-01000-B-002P, RU000A102887 Облигация биржевая, 4B02-153-01000-B-001P, RU000A102EH7 Облигация биржевая, 4B02-170-01000-B-001P, RU000A102EZ9 Облигация биржевая, 4B02-171-01000-B-001P, RU000A102F02 Облигация биржевая, 4B02-172-01000-B-001P, RU000A102F10 Облигация биржевая, 4B02-184-01000-B-001P, RU000A0NNE69 Облигация биржевая, 4B02-187-01000-B-001P, RU000A0NNE93 Облигация биржевая, 4B02-188-01000-B-001P, RU000A0NNEA2 Облигация биржевая, 4B02-189-01000-B-001P, RU000A0NNEB0 Облигация биржевая, 4B02-190-01000-B-001P, RU000A0NNEC8 Облигация биржевая, 4B02-191-01000-B-001P, RU000A0NNED6 Облигация биржевая, 4B02-192-01000-B-001P, RU000A0NNEE4 Облигация биржевая, 4B02-193-01000-B-001P, RU000A0NNEF1 Облигация биржевая, 4B02-194-01000-B-001P, RU000A0NNEG9 Облигация биржевая, 4B02-197-01000-B-001P, RU000A0NNEK1 Облигация биржевая, 4B02-198-01000-B-001P, RU000A0NNEL9 Облигация биржевая, 4B02-199-01000-B-001P, RU000A0NNEM7 Облигация биржевая, 4B02-200-01000-B-001P, RU000A0NNEN5 Облигация биржевая, 4B02-201-01000-B-001P, RU000A0NNEP0 Облигация биржевая, 4B02-202-01000-B-001P, RU000A0NNEQ8 Облигация корпоративная, 4-01-01000-B-001P, RU000A102QJ7 Облигация корпоративная, 4-02-01000-B-001P, RU000A102QL3 Облигация корпоративная, 4-03-01000-B-001P, RU000A102QM1 Облигация корпоративная, 4-04-01000-B-001P, RU000A102QN9 Облигация биржевая, 4B02-208-01000-B-001P, RU000A103182 Облигация биржевая, 4B02-211-01000-B-001P, RU000A1031B3 Облигация биржевая, 4B02-212-01000-B-001P, RU000A1031C1 Облигация биржевая, 4B02-214-01000-B-001P, RU000A103141 Облигация биржевая, 4B02-215-01000-B-001P, RU000A103158 Облигация биржевая, 4B02-216-01000-B-001P, RU000A103166 Облигация биржевая, 4B02-217-01000-B-001P, RU000A103174 Облигация корпоративная, 4-05-01000-B-001P, RU000A1034P7 Облигация корпоративная, 4-06-01000-B-001P, RU000A1034Q5 Облигация биржевая, 4B02-218-01000-B-001P, RU000A103489 Облигация биржевая, 4B02-219-01000-B-001P, RU000A103497 Облигация биржевая, 4B02-220-01000-B-001P, RU000A1034A9 Облигация биржевая, 4B02-221-01000-B-001P, RU000A1034B7 Облигация биржевая, 4B02-223-01000-B-001P, RU000A1034D3 Облигация биржевая, 4B02-224-01000-B-001P, RU000A1034E1 Облигация биржевая, 4B02-225-01000-B-001P, RU000A1034F8 Облигация биржевая, 4B02-226-01000-B-001P, RU000A1034G6 Облигация биржевая, 4B02-227-01000-B-001P, RU000A1034H4 Облигация биржевая, 4B02-231-01000-B-001P, RU000A103BE8 Облигация биржевая, 4B02-232-01000-B-001P Облигация биржевая, 4B02-233-01000-B-001P Облигация биржевая, 4B02-234-01000-B-001P Облигация биржевая, 4B02-235-01000-B-001P Облигация биржевая, 4B02-236-01000-B-001P, RU000A103QA4 Облигация биржевая, 4B02-237-01000-B-001P, RU000A103QB2 Облигация биржевая, 4B02-238-01000-B-001P, RU000A103QC0 Облигация биржевая, 4B02-239-01000-B-001P, RU000A103QD8 Облигация биржевая, 4B02-240-01000-B-001P, RU000A103QE6 Облигация биржевая, 4B02-241-01000-B-001P, RU000A103TW2 Облигация биржевая, 4B02-242-01000-B-001P, RU000A103TX0 Облигация биржевая, 4B02-243-01000-B-001P, RU000A103TY8 Облигация биржевая, 4B02-244-01000-B-001P, RU000A103TZ5 Облигация биржевая, 4B02-245-01000-B-001P, RU000A103U02 Облигация биржевая, 4B02-246-01000-B-001P, RU000A103U10 Облигация биржевая, 4B02-247-01000-B-001P, RU000A103U28 Облигация биржевая, 4B02-248-01000-B-001P, RU000A103U36 Облигация биржевая, 4B02-249-01000-B-001P, RU000A103U44 Облигация биржевая, 4B02-250-01000-B-001P, RU000A103U51 Облигация корпоративная, 4-07-01000-B-001P, RU000A103S71 Облигация корпоративная, 4-08-01000-B-001P, RU000A103S89 Облигация корпоративная, 4-09-01000-B-001P, RU000A103S97 Облигация корпоративная, 4-10-01000-B-001P, RU000A103SA0 Облигация корпоративная, 4-11-01000-B-001P, RU000A103SB8 Облигация корпоративная, 4-12-01000-B-001P, RU000A103SC6 Облигация биржевая, 4B02-254-01000-B-001P, RU000A103XS2 Облигация биржевая, 4B02-255-01000-B-001P, RU000A103XT0 Облигация биржевая, 4B02-256-01000-B-001P, RU000A103XU8 Облигация биржевая, 4B02-257-01000-B-001P, RU000A103XV6 Облигация биржевая, 4B02-258-01000-B-001P Облигация биржевая, 4B02-259-01000-B-001P, RU000A103XX2 Облигация биржевая, 4B02-260-01000-B-001P, RU000A103XY0 Облигация биржевая, 4B02-261-01000-B-001P, RU000A103XZ7 Облигация биржевая, 4B02-262-01000-B-001P, RU000A103XH5 Облигация биржевая, 4B02-263-01000-B-001P, RU000A103XJ1 Облигация биржевая, 4B02-264-01000-B-001P, RU000A103XK9 Облигация биржевая, 4B02-265-01000-B-001P, RU000A103XL7 Облигация биржевая, 4B02-266-01000-B-001P, RU000A103XM5 Облигация биржевая, 4B02-267-01000-B-001P, RU000A103XN3 Облигация биржевая, 4B02-268-01000-B-001P, RU000A103XQ6 Облигация биржевая, 4B02-269-01000-B-001P Облигация биржевая, 4B02-270-01000-B-001P Облигация биржевая, 4B02-271-01000-B-001P Облигация биржевая, 4B02-272-01000-B-001P Облигация биржевая, 4B02-273-01000-B-001P Облигация биржевая, 4B02-274-01000-B-001P, RU000A1043P8 Облигация биржевая, 4B02-275-01000-B-001P, RU000A104545 Облигация биржевая, 4B02-276-01000-B-001P, RU000A104552 Облигация биржевая, 4B02-277-01000-B-001P Облигация биржевая, 4B02-278-01000-B-001P, RU000A104578 Облигация биржевая, 4B02-280-01000-B-001P, RU000A104594 Облигация биржевая, 4B02-281-01000-B-001P, RU000A1045A5 Облигация биржевая, 4B02-282-01000-B-001P, RU000A1045B3 Облигация биржевая, 4B02-283-01000-B-001P, RU000A1045C1 Облигация биржевая, 4B02-284-01000-B-001P, RU000A1045D9 Облигация биржевая, 4B02-279-01000-B-001P, RU000A104586 Облигация биржевая, 4B02-285-01000-B-001P, RU000A104636 Облигация биржевая, 4B02-287-01000-B-001P, RU000A104D69 Облигация биржевая, 4B02-297-01000-B-001P Облигация биржевая, 4B02-288-01000-B-001P, RU000A104D77 Облигация биржевая, 4B02-298-01000-B-001P Облигация биржевая, 4B02-299-01000-B-001P Облигация биржевая, 4B02-289-01000-B-001P Облигация биржевая, 4B02-300-01000-B-001P Облигация биржевая, 4B02-290-01000-B-001P Облигация биржевая, 4B02-301-01000-B-001P Облигация биржевая, 4B02-302-01000-B-001P Облигация биржевая, 4B02-303-01000-B-001P Облигация биржевая, 4B02-291-01000-B-001P Облигация биржевая, 4B02-292-01000-B-001P, RU000A104DB8 Облигация биржевая, 4B02-293-01000-B-001P, RU000A104DC6 Облигация биржевая, 4B02-294-01000-B-001P, RU000A104DD4 Облигация биржевая, 4B02-295-01000-B-001P Облигация биржевая, 4B02-304-01000-B-001P Облигация биржевая, 4B02-296-01000-B-001P Облигация биржевая, 4B02-305-01000-B-001P Облигация биржевая, 4B02-306-01000-B-001P Облигация биржевая, 4B02-308-01000-B-001P, RU000A1070B1 Облигация биржевая, 4B02-309-01000-B-001P, RU000A107613 Облигация корпоративная, 4-13-01000-B-001P, RU000A104JW1 Облигация биржевая, 4B02-310-01000-B-001P Облигация биржевая, 4B02-314-01000-B-001P, RU000A1055Z1 Облигация биржевая, 4B02-315-01000-B-001P, RU000A1057Q6 Облигация биржевая, 4B02-316-01000-B-001P Облигация биржевая, 4B02-317-01000-B-001P Облигация биржевая, 4B02-319-01000-B-001P, RU000A106DN8 Облигация биржевая, 4B02-320-01000-B-001P, RU000A106M25 Облигация биржевая, 4B02-321-01000-B-001P, RU000A105RQ3 Облигация биржевая, 4B02-322-01000-B-001P, RU000A106045 Облигация биржевая, 4B02-323-01000-B-001P, RU000A106A94 Облигация биржевая, 4B02-324-01000-B-001P, RU000A105PY1 Облигация биржевая, 4B02-325-01000-B-001P, RU000A105Z70 Облигация биржевая, 4B02-326-01000-B-001P, RU000A1067N2 Облигация биржевая, 4B02-327-01000-B-001P, RU000A106FQ6 Облигация корпоративная, 6-252-01000-B-001P, RU000A0NNHL2 Облигация корпоративная, 6-475-01000-B-001P, RU000A0UD6J8 Облигация корпоративная, 6-483-01000-B-001P, RU000A0UD6S9 Облигация биржевая, 4B02-329-01000-B-001P, RU000A106M41 Облигация корпоративная, 6-518-01000-B-001P, RU000A1069H0 Облигация корпоративная, 6-519-01000-B-001P, RU000A1069J6 Облигация биржевая, 4B02-330-01000-B-001P, RU000A106MQ2 Облигация биржевая, 4B02-331-01000-B-001P Облигация биржевая, 4B02-332-01000-B-001P Облигация биржевая, 4B02-333-01000-B-001P Облигация биржевая, 4B02-334-01000-B-001P Облигация биржевая, 4B02-335-01000-B-001P Облигация биржевая, 4B02-336-01000-B-001P Облигация биржевая, 4B02-337-01000-B-001P Облигация биржевая, 4B02-338-01000-B-001P, RU000A106U33 Облигация биржевая, 4B02-339-01000-B-001P, RU000A106U41 Облигация биржевая, 4B02-340-01000-B-001P Облигация корпоративная, 6-627-01000-B-001P, RU000A0NRCD1 Облигация биржевая, 4B02-341-01000-B-001P Облигация биржевая, 4B02-343-01000-B-001P Облигация биржевая, 4B02-342-01000-B-001P, RU000A106TM6 Облигация корпоративная, 6-662-01000-B-001P, RU000A0NRCJ8 Облигация корпоративная, 6-713-01000-B-001P, RU000A0NTYA7 Облигация корпоративная, 6-714-01000-B-001P, RU000A0NTYB5 Облигация корпоративная, 6-733-01000-B-001P, RU000A0NX2N4 Облигация корпоративная, 6-667-01000-B-001P, RU000A0NRCP5 Облигация корпоративная, 6-782-01000-B-001P, RU000A1072W3 Облигация биржевая, 4B02-345-01000-B-001P, RU000A1078F5 Облигация корпоративная, 6-795-01000-B-001P, RU000A1073V3 Облигация корпоративная, 6-800-01000-B-001P, RU000A107407 Облигация биржевая, 4B02-346-01000-B-001P, RU000A107B35 Облигация биржевая, 4B02-347-01000-B-001P, RU000A107JK9 Облигация биржевая, 4B02-348-01000-B-001P, RU000A107U16 Облигация биржевая, 4B02-349-01000-B-001P, RU000A107BE9 Облигация биржевая, 4B02-350-01000-B-001P, RU000A107JH5 Облигация биржевая, 4B02-698-01000-B-005P, RU000A108C66 Облигация биржевая, 4B02-699-01000-B-005P, RU000A108CF2 Облигация биржевая, 4B02-700-01000-B-005P, RU000A108CN6 Облигация биржевая, 4B02-351-01000-B-001P, RU000A107W55 Облигация биржевая, 4B02-352-01000-B-001P, RU000A108DM6 Облигация биржевая, 4B02-353-01000-B-001P, RU000A108DN4 Облигация биржевая, 4B02-354-01000-B-001P Облигация биржевая, 4B02-701-01000-B-005P, RU000A108DD5 Облигация биржевая, 4B02-702-01000-B-005P, RU000A108DK0 Облигация биржевая, 4B02-703-01000-B-005P Облигация биржевая, 4B02-704-01000-B-005P Облигация биржевая, 4B02-705-01000-B-005P Облигация биржевая, 4B02-706-01000-B-005P Облигация биржевая, 4B02-707-01000-B-005P Облигация биржевая, 4B02-708-01000-B-005P Облигация биржевая, 4B02-709-01000-B-005P Облигация биржевая, 4B02-710-01000-B-005P Облигация биржевая, 4B02-711-01000-B-005P Облигация биржевая, 4B02-712-01000-B-005P Облигация биржевая, 4B02-713-01000-B-005P Облигация биржевая, 4B02-714-01000-B-005P Облигация биржевая, 4B02-715-01000-B-005P Облигация биржевая, 4B02-716-01000-B-005P Облигация биржевая, 4B02-717-01000-B-005P Облигация биржевая, 4B02-718-01000-B-005P Облигация биржевая, 4B02-719-01000-B-005P Облигация биржевая, 4B02-720-01000-B-005P Облигация биржевая, 4B02-721-01000-B-005P Облигация биржевая, 4B02-722-01000-B-005P Облигация биржевая, 4B02-723-01000-B-005P Облигация биржевая, 4B02-724-01000-B-005P Облигация биржевая, 4B02-725-01000-B-005P Облигация биржевая, 4B02-726-01000-B-005P Облигация биржевая, 4B02-727-01000-B-005P Облигация биржевая, 4B02-728-01000-B-005P Облигация биржевая, 4B02-729-01000-B-005P Облигация биржевая, 4B02-730-01000-B-005P Облигация биржевая, 4B02-731-01000-B-005P Облигация биржевая, 4B02-732-01000-B-005P Облигация биржевая, 4B02-733-01000-B-005P Облигация биржевая, 4B02-734-01000-B-005P Облигация биржевая, 4B02-735-01000-B-005P Облигация биржевая, 4B02-736-01000-B-005P Облигация биржевая, 4B02-737-01000-B-005P Облигация биржевая, 4B02-738-01000-B-005P Облигация биржевая, 4B02-739-01000-B-005P Облигация биржевая, 4B02-740-01000-B-005P Облигация биржевая, 4B02-741-01000-B-005P Облигация биржевая, 4B02-742-01000-B-005P Облигация биржевая, 4B02-743-01000-B-005P Облигация биржевая, 4B02-744-01000-B-005P Облигация биржевая, 4B02-745-01000-B-005P Облигация биржевая, 4B02-746-01000-B-005P Облигация биржевая, 4B02-747-01000-B-005P Облигация биржевая, 4B02-748-01000-B-005P Облигация биржевая, 4B02-749-01000-B-005P Облигация биржевая, 4B02-750-01000-B-005P</t>
+    <t>Облигация биржевая, 4B023001000B, RU000A0JV3Q3 Облигация биржевая, 4B021101000B002P Облигация биржевая, 4B021201000B002P Облигация биржевая, 4B021301000B002P Облигация биржевая, 4B021401000B002P Облигация биржевая, 4B021501000B002P Облигация корпоративная, 40901000B, RU000A1014J2 Облигация биржевая, 4B02-62-01000-B-001P, RU000A101KE3 Облигация биржевая, 4B02-66-01000-B-001P, RU000A101MW1 Облигация биржевая, 4B02-68-01000-B-001P, RU000A101NX7 Облигация биржевая, 4B02-69-01000-B-001P, RU000A101P01 Облигация биржевая, 4B02-71-01000-B-001P, RU000A101PS2 Облигация биржевая, 4B02-79-01000-B-001P, RU000A101SN7 Облигация биржевая, 4B02-81-01000-B-001P, RU000A101TF1 Облигация биржевая, 4B02-83-01000-B-001P, RU000A101TH7 Облигация биржевая, 4B02-96-01000-B-001P, RU000A101VF7 Облигация биржевая, 4B02-97-01000-B-001P, RU000A101VG5 Облигация биржевая, 4B02-137-01000-B-001P, RU000A1027F2 Облигация биржевая, 4B02-138-01000-B-001P, RU000A1027G0 Облигация биржевая, 4B02-141-01000-B-001P, RU000A1027K2 Облигация биржевая, 4B02-142-01000-B-001P, RU000A1027L0 Облигация корпоративная, 4-01-01000-B-002P, RU000A102879 Облигация корпоративная, 4-02-01000-B-002P, RU000A102887 Облигация биржевая, 4B02-153-01000-B-001P, RU000A102EH7 Облигация биржевая, 4B02-170-01000-B-001P, RU000A102EZ9 Облигация биржевая, 4B02-171-01000-B-001P, RU000A102F02 Облигация биржевая, 4B02-172-01000-B-001P, RU000A102F10 Облигация биржевая, 4B02-184-01000-B-001P, RU000A0NNE69 Облигация биржевая, 4B02-187-01000-B-001P, RU000A0NNE93 Облигация биржевая, 4B02-188-01000-B-001P, RU000A0NNEA2 Облигация биржевая, 4B02-190-01000-B-001P, RU000A0NNEC8 Облигация биржевая, 4B02-191-01000-B-001P, RU000A0NNED6 Облигация биржевая, 4B02-192-01000-B-001P, RU000A0NNEE4 Облигация биржевая, 4B02-193-01000-B-001P, RU000A0NNEF1 Облигация биржевая, 4B02-194-01000-B-001P, RU000A0NNEG9 Облигация биржевая, 4B02-197-01000-B-001P, RU000A0NNEK1 Облигация биржевая, 4B02-198-01000-B-001P, RU000A0NNEL9 Облигация биржевая, 4B02-199-01000-B-001P, RU000A0NNEM7 Облигация биржевая, 4B02-200-01000-B-001P, RU000A0NNEN5 Облигация биржевая, 4B02-201-01000-B-001P, RU000A0NNEP0 Облигация биржевая, 4B02-202-01000-B-001P, RU000A0NNEQ8 Облигация корпоративная, 4-01-01000-B-001P, RU000A102QJ7 Облигация корпоративная, 4-02-01000-B-001P, RU000A102QL3 Облигация корпоративная, 4-03-01000-B-001P, RU000A102QM1 Облигация корпоративная, 4-04-01000-B-001P, RU000A102QN9 Облигация биржевая, 4B02-208-01000-B-001P, RU000A103182 Облигация биржевая, 4B02-211-01000-B-001P, RU000A1031B3 Облигация биржевая, 4B02-212-01000-B-001P, RU000A1031C1 Облигация биржевая, 4B02-214-01000-B-001P, RU000A103141 Облигация биржевая, 4B02-215-01000-B-001P, RU000A103158 Облигация биржевая, 4B02-216-01000-B-001P, RU000A103166 Облигация биржевая, 4B02-217-01000-B-001P, RU000A103174 Облигация корпоративная, 4-05-01000-B-001P, RU000A1034P7 Облигация корпоративная, 4-06-01000-B-001P, RU000A1034Q5 Облигация биржевая, 4B02-218-01000-B-001P, RU000A103489 Облигация биржевая, 4B02-219-01000-B-001P, RU000A103497 Облигация биржевая, 4B02-220-01000-B-001P, RU000A1034A9 Облигация биржевая, 4B02-221-01000-B-001P, RU000A1034B7 Облигация биржевая, 4B02-223-01000-B-001P, RU000A1034D3 Облигация биржевая, 4B02-224-01000-B-001P, RU000A1034E1 Облигация биржевая, 4B02-225-01000-B-001P, RU000A1034F8 Облигация биржевая, 4B02-226-01000-B-001P, RU000A1034G6 Облигация биржевая, 4B02-227-01000-B-001P, RU000A1034H4 Облигация биржевая, 4B02-231-01000-B-001P, RU000A103BE8 Облигация биржевая, 4B02-232-01000-B-001P Облигация биржевая, 4B02-233-01000-B-001P Облигация биржевая, 4B02-234-01000-B-001P Облигация биржевая, 4B02-235-01000-B-001P Облигация биржевая, 4B02-236-01000-B-001P, RU000A103QA4 Облигация биржевая, 4B02-237-01000-B-001P, RU000A103QB2 Облигация биржевая, 4B02-238-01000-B-001P, RU000A103QC0 Облигация биржевая, 4B02-239-01000-B-001P, RU000A103QD8 Облигация биржевая, 4B02-240-01000-B-001P, RU000A103QE6 Облигация биржевая, 4B02-241-01000-B-001P, RU000A103TW2 Облигация биржевая, 4B02-242-01000-B-001P, RU000A103TX0 Облигация биржевая, 4B02-243-01000-B-001P, RU000A103TY8 Облигация биржевая, 4B02-244-01000-B-001P, RU000A103TZ5 Облигация биржевая, 4B02-245-01000-B-001P, RU000A103U02 Облигация биржевая, 4B02-246-01000-B-001P, RU000A103U10 Облигация биржевая, 4B02-247-01000-B-001P, RU000A103U28 Облигация биржевая, 4B02-248-01000-B-001P, RU000A103U36 Облигация биржевая, 4B02-249-01000-B-001P, RU000A103U44 Облигация биржевая, 4B02-250-01000-B-001P, RU000A103U51 Облигация корпоративная, 4-07-01000-B-001P, RU000A103S71 Облигация корпоративная, 4-08-01000-B-001P, RU000A103S89 Облигация корпоративная, 4-09-01000-B-001P, RU000A103S97 Облигация корпоративная, 4-10-01000-B-001P, RU000A103SA0 Облигация корпоративная, 4-11-01000-B-001P, RU000A103SB8 Облигация корпоративная, 4-12-01000-B-001P, RU000A103SC6 Облигация биржевая, 4B02-254-01000-B-001P, RU000A103XS2 Облигация биржевая, 4B02-255-01000-B-001P, RU000A103XT0 Облигация биржевая, 4B02-256-01000-B-001P, RU000A103XU8 Облигация биржевая, 4B02-257-01000-B-001P, RU000A103XV6 Облигация биржевая, 4B02-258-01000-B-001P Облигация биржевая, 4B02-259-01000-B-001P, RU000A103XX2 Облигация биржевая, 4B02-260-01000-B-001P, RU000A103XY0 Облигация биржевая, 4B02-261-01000-B-001P, RU000A103XZ7 Облигация биржевая, 4B02-262-01000-B-001P, RU000A103XH5 Облигация биржевая, 4B02-263-01000-B-001P, RU000A103XJ1 Облигация биржевая, 4B02-264-01000-B-001P, RU000A103XK9 Облигация биржевая, 4B02-265-01000-B-001P, RU000A103XL7 Облигация биржевая, 4B02-266-01000-B-001P, RU000A103XM5 Облигация биржевая, 4B02-267-01000-B-001P, RU000A103XN3 Облигация биржевая, 4B02-268-01000-B-001P, RU000A103XQ6 Облигация биржевая, 4B02-269-01000-B-001P Облигация биржевая, 4B02-270-01000-B-001P Облигация биржевая, 4B02-271-01000-B-001P Облигация биржевая, 4B02-272-01000-B-001P Облигация биржевая, 4B02-273-01000-B-001P Облигация биржевая, 4B02-274-01000-B-001P, RU000A1043P8 Облигация биржевая, 4B02-275-01000-B-001P, RU000A104545 Облигация биржевая, 4B02-276-01000-B-001P, RU000A104552 Облигация биржевая, 4B02-277-01000-B-001P Облигация биржевая, 4B02-278-01000-B-001P, RU000A104578 Облигация биржевая, 4B02-280-01000-B-001P, RU000A104594 Облигация биржевая, 4B02-281-01000-B-001P, RU000A1045A5 Облигация биржевая, 4B02-282-01000-B-001P, RU000A1045B3 Облигация биржевая, 4B02-283-01000-B-001P, RU000A1045C1 Облигация биржевая, 4B02-284-01000-B-001P, RU000A1045D9 Облигация биржевая, 4B02-279-01000-B-001P, RU000A104586 Облигация биржевая, 4B02-285-01000-B-001P, RU000A104636 Облигация биржевая, 4B02-287-01000-B-001P, RU000A104D69 Облигация биржевая, 4B02-297-01000-B-001P Облигация биржевая, 4B02-288-01000-B-001P, RU000A104D77 Облигация биржевая, 4B02-298-01000-B-001P Облигация биржевая, 4B02-299-01000-B-001P Облигация биржевая, 4B02-289-01000-B-001P Облигация биржевая, 4B02-300-01000-B-001P Облигация биржевая, 4B02-290-01000-B-001P Облигация биржевая, 4B02-301-01000-B-001P Облигация биржевая, 4B02-302-01000-B-001P Облигация биржевая, 4B02-303-01000-B-001P Облигация биржевая, 4B02-291-01000-B-001P Облигация биржевая, 4B02-292-01000-B-001P, RU000A104DB8 Облигация биржевая, 4B02-293-01000-B-001P, RU000A104DC6 Облигация биржевая, 4B02-294-01000-B-001P, RU000A104DD4 Облигация биржевая, 4B02-295-01000-B-001P Облигация биржевая, 4B02-304-01000-B-001P Облигация биржевая, 4B02-296-01000-B-001P Облигация биржевая, 4B02-305-01000-B-001P Облигация биржевая, 4B02-306-01000-B-001P Облигация биржевая, 4B02-308-01000-B-001P, RU000A1070B1 Облигация биржевая, 4B02-309-01000-B-001P, RU000A107613 Облигация корпоративная, 4-13-01000-B-001P, RU000A104JW1 Облигация биржевая, 4B02-310-01000-B-001P Облигация биржевая, 4B02-314-01000-B-001P, RU000A1055Z1 Облигация биржевая, 4B02-315-01000-B-001P, RU000A1057Q6 Облигация биржевая, 4B02-316-01000-B-001P Облигация биржевая, 4B02-317-01000-B-001P Облигация биржевая, 4B02-319-01000-B-001P, RU000A106DN8 Облигация биржевая, 4B02-320-01000-B-001P, RU000A106M25 Облигация биржевая, 4B02-321-01000-B-001P, RU000A105RQ3 Облигация биржевая, 4B02-322-01000-B-001P, RU000A106045 Облигация биржевая, 4B02-323-01000-B-001P, RU000A106A94 Облигация биржевая, 4B02-324-01000-B-001P, RU000A105PY1 Облигация биржевая, 4B02-325-01000-B-001P, RU000A105Z70 Облигация биржевая, 4B02-326-01000-B-001P, RU000A1067N2 Облигация биржевая, 4B02-327-01000-B-001P, RU000A106FQ6 Облигация корпоративная, 6-252-01000-B-001P, RU000A0NNHL2 Облигация корпоративная, 6-475-01000-B-001P, RU000A0UD6J8 Облигация корпоративная, 6-483-01000-B-001P, RU000A0UD6S9 Облигация биржевая, 4B02-329-01000-B-001P, RU000A106M41 Облигация корпоративная, 6-518-01000-B-001P, RU000A1069H0 Облигация корпоративная, 6-519-01000-B-001P, RU000A1069J6 Облигация биржевая, 4B02-330-01000-B-001P, RU000A106MQ2 Облигация биржевая, 4B02-331-01000-B-001P Облигация биржевая, 4B02-332-01000-B-001P Облигация биржевая, 4B02-333-01000-B-001P Облигация биржевая, 4B02-334-01000-B-001P Облигация биржевая, 4B02-335-01000-B-001P Облигация биржевая, 4B02-336-01000-B-001P Облигация биржевая, 4B02-337-01000-B-001P Облигация биржевая, 4B02-338-01000-B-001P, RU000A106U33 Облигация биржевая, 4B02-339-01000-B-001P, RU000A106U41 Облигация биржевая, 4B02-340-01000-B-001P Облигация корпоративная, 6-627-01000-B-001P, RU000A0NRCD1 Облигация биржевая, 4B02-341-01000-B-001P Облигация биржевая, 4B02-343-01000-B-001P Облигация биржевая, 4B02-342-01000-B-001P, RU000A106TM6 Облигация корпоративная, 6-662-01000-B-001P, RU000A0NRCJ8 Облигация корпоративная, 6-713-01000-B-001P, RU000A0NTYA7 Облигация корпоративная, 6-714-01000-B-001P, RU000A0NTYB5 Облигация корпоративная, 6-733-01000-B-001P, RU000A0NX2N4 Облигация корпоративная, 6-667-01000-B-001P, RU000A0NRCP5 Облигация корпоративная, 6-782-01000-B-001P, RU000A1072W3 Облигация биржевая, 4B02-345-01000-B-001P, RU000A1078F5 Облигация корпоративная, 6-795-01000-B-001P, RU000A1073V3 Облигация корпоративная, 6-800-01000-B-001P, RU000A107407 Облигация биржевая, 4B02-346-01000-B-001P, RU000A107B35 Облигация биржевая, 4B02-347-01000-B-001P, RU000A107JK9 Облигация биржевая, 4B02-348-01000-B-001P, RU000A107U16 Облигация биржевая, 4B02-349-01000-B-001P, RU000A107BE9 Облигация биржевая, 4B02-350-01000-B-001P, RU000A107JH5 Облигация биржевая, 4B02-351-01000-B-001P, RU000A107W55 Облигация биржевая, 4B02-352-01000-B-001P, RU000A108DM6 Облигация биржевая, 4B02-353-01000-B-001P, RU000A108DN4 Облигация биржевая, 4B02-354-01000-B-001P Облигация биржевая, 4B02-701-01000-B-005P, RU000A108DD5 Облигация биржевая, 4B02-702-01000-B-005P, RU000A108DK0 Облигация биржевая, 4B02-703-01000-B-005P, RU000A108DS3 Облигация биржевая, 4B02-704-01000-B-005P, RU000A108DY1 Облигация биржевая, 4B02-705-01000-B-005P, RU000A108DZ8 Облигация биржевая, 4B02-706-01000-B-005P Облигация биржевая, 4B02-707-01000-B-005P Облигация биржевая, 4B02-708-01000-B-005P Облигация биржевая, 4B02-709-01000-B-005P Облигация биржевая, 4B02-710-01000-B-005P Облигация биржевая, 4B02-711-01000-B-005P Облигация биржевая, 4B02-712-01000-B-005P Облигация биржевая, 4B02-713-01000-B-005P Облигация биржевая, 4B02-714-01000-B-005P Облигация биржевая, 4B02-715-01000-B-005P Облигация биржевая, 4B02-716-01000-B-005P Облигация биржевая, 4B02-717-01000-B-005P Облигация биржевая, 4B02-718-01000-B-005P Облигация биржевая, 4B02-719-01000-B-005P Облигация биржевая, 4B02-720-01000-B-005P Облигация биржевая, 4B02-721-01000-B-005P Облигация биржевая, 4B02-722-01000-B-005P Облигация биржевая, 4B02-723-01000-B-005P Облигация биржевая, 4B02-724-01000-B-005P Облигация биржевая, 4B02-725-01000-B-005P Облигация биржевая, 4B02-726-01000-B-005P Облигация биржевая, 4B02-727-01000-B-005P Облигация биржевая, 4B02-728-01000-B-005P Облигация биржевая, 4B02-729-01000-B-005P Облигация биржевая, 4B02-730-01000-B-005P Облигация биржевая, 4B02-731-01000-B-005P Облигация биржевая, 4B02-732-01000-B-005P Облигация биржевая, 4B02-733-01000-B-005P Облигация биржевая, 4B02-734-01000-B-005P Облигация биржевая, 4B02-735-01000-B-005P Облигация биржевая, 4B02-736-01000-B-005P Облигация биржевая, 4B02-737-01000-B-005P Облигация биржевая, 4B02-738-01000-B-005P Облигация биржевая, 4B02-739-01000-B-005P Облигация биржевая, 4B02-740-01000-B-005P Облигация биржевая, 4B02-741-01000-B-005P Облигация биржевая, 4B02-742-01000-B-005P Облигация биржевая, 4B02-743-01000-B-005P Облигация биржевая, 4B02-744-01000-B-005P Облигация биржевая, 4B02-745-01000-B-005P Облигация биржевая, 4B02-746-01000-B-005P Облигация биржевая, 4B02-747-01000-B-005P Облигация биржевая, 4B02-748-01000-B-005P Облигация биржевая, 4B02-749-01000-B-005P Облигация биржевая, 4B02-750-01000-B-005P Облигация биржевая, 4B02-355-01000-B-001P</t>
   </si>
   <si>
     <t>Облигация биржевая, 4B02-01-16677-A Облигация биржевая, 4B02-02-16677-A Облигация биржевая, 4B02-03-16677-A Облигация биржевая, 4B02-04-16677-A Облигация биржевая, 4B02-05-16677-A, RU000A105104 Облигация биржевая, 4B02-06-16677-A, RU000A105112 Облигация биржевая, 4B02-01-16677-A-001P, RU000A105C44 Облигация биржевая, 4B02-02-16677-A-001P, RU000A105PQ7 Облигация биржевая, 4B02-03-16677-A-001P, RU000A105Q06 Облигация биржевая, 4B02-04-16677-A-001P, RU000A106V57 Облигация биржевая, 4B02-05-16677-A-001P, RU000A1076U8 Облигация биржевая, 4B02-06-16677-A-001P, RU000A107RH8 Облигация биржевая, 4B02-07-16677-A-001P, RU000A1089K2</t>
@@ -8038,10 +8038,10 @@
     <t>Акция обыкновенная, 1-01-00124-A, RU0008943394 Облигация биржевая, 4B02-01-00124-A, RU000A0JVFC6 Облигация биржевая, 4B02-01-00124-A-001P, RU000A0JWTN2 Облигация биржевая, 4B02-02-00124-A-001P, RU000A0JXPN8 Облигация биржевая, 4B02-03-00124-A-001P, RU000A0ZYG52 Облигация биржевая, 4B02-04-00124-A-001P, RU000A0ZYYE3 Облигация биржевая, 4B02-05-00124-A-001P, RU000A100881 Облигация биржевая, 4B02-01-00124-A-002P, RU000A101541 Облигация биржевая, 4B02-03-00124-A-002P, RU000A101FG8 Облигация биржевая, 4B02-05-00124-A-002P, RU000A1028G8 Облигация биржевая, 4B02-06-00124-A-002P, RU000A103EZ7 Облигация биржевая, 4B02-06-00124-A-001P, RU000A105LC6 Облигация биржевая, 4B02-07-00124-A-002P, RU000A104TD0 Облигация биржевая, 4B02-08-00124-A-002P, RU000A104VS4 Облигация биржевая, 4B02-09-00124-A-002P, RU000A1051E5 Облигация биржевая, 4B02-10-00124-A-002P, RU000A105UU9 Облигация биржевая, 4B02-11-00124-A-002P, RU000A106T93 Облигация биржевая, 4B02-12-00124-A-002P, RU000A1077Y8 Облигация биржевая, 4B02-13-00124-A-002P, RU000A107910 Облигация биржевая, 4B02-14-00124-A-002P, RU000A1085D5</t>
   </si>
   <si>
-    <t>Акция привилегированная, 20301481B, RU0009029557 Облигация биржевая, 4B024601481B001P Облигация биржевая, 4B028801481B001P, RU000A100DS0 Облигация биржевая, 4B029101481B001P, RU000A100EC2 Облигация биржевая, 4B0210901481B001P, RU000A100KZ0 Облигация биржевая, 4B0211601481B001P, RU000A100MZ6 Облигация биржевая, 4B0212301481B001P, RU000A100PX4 Облигация биржевая, 4B0213901481B001P, RU000A100TP2 Облигация биржевая, 4B0215201481B001P, RU000A100VV6 Облигация биржевая, 4B0215701481B001P, RU000A100X36 Облигация биржевая, 4B0215801481B001P, RU000A100YB2 Облигация биржевая, 4B0216301481B001P, RU000A100Z75 Облигация биржевая, 4B0216701481B001P, RU000A101103 Облигация биржевая, 4B0217101481B001P, RU000A1011K6 Облигация биржевая, 4B0216901481B001P, RU000A1011F6 Облигация биржевая, 4B0217001481B001P, RU000A1011H2 Облигация биржевая, 4B0217901481B001P, RU000A101400 Облигация биржевая, 4B0218301481B001P, RU000A1015U6 Облигация биржевая, 4B0218601481B001P, RU000A101640 Облигация биржевая, 4B0218501481B001P, RU000A101657 Облигация биржевая, 4B0218901481B001P, RU000A1017R8 Облигация биржевая, 4B0219001481B001P, RU000A1017Q0 Облигация биржевая, 4B0219501481B001P, RU000A1019T0 Облигация биржевая, 4B0221001481B001P, RU000A101DR0 Облигация биржевая, 4B0221701481B001P, RU000A101C14 Облигация биржевая, 4B0221101481B001P, RU000A101FQ7 Облигация биржевая, 4B0221201481B001P, RU000A101CY8 Облигация биржевая, 4B0221301481B001P, RU000A101EL1 Облигация биржевая, 4B0221401481B001P, RU000A101EB2 Облигация биржевая, 4B0220801481B001P, RU000A101D62 Облигация биржевая, 4B0221501481B001P, RU000A101ED8 Облигация биржевая, 4B0221601481B001P, RU000A101C48 Облигация биржевая, 4B02-220-01481-B-001P, RU000A101FD5 Облигация биржевая, 4B02-224-01481-B-001P, RU000A101GP7 Облигация биржевая, 4B02-226-01481-B-001P, RU000A101GF8 Облигация биржевая, 4B02-231-01481-B-001P, RU000A101HG4 Облигация биржевая, 4B02-230-01481-B-001P, RU000A101HH2 Облигация биржевая, 4B02-232-01481-B-001P, RU000A101HF6 Облигация биржевая, 4B02-234-01481-B-001P, RU000A101JW7 Облигация биржевая, 4B02-229-01481-B-001P, RU000A101GT9 Облигация биржевая, 4B02-233-01481-B-001P, RU000A101HK6 Облигация биржевая, 4B02-236-01481-B-001P, RU000A101J58 Облигация биржевая, 4B02-237-01481-B-001P, RU000A101J41 Облигация биржевая, 4B02-243-01481-B-001P, RU000A101KF0 Облигация биржевая, 4B02-241-01481-B-001P, RU000A101KH6 Облигация биржевая, 4B02-250-01481-B-001P, RU000A101LT9 Облигация биржевая, 4B02-251-01481-B-001P, RU000A101LU7 Облигация биржевая, 4B02-247-01481-B-001P, RU000A101L21 Облигация биржевая, 4B02-249-01481-B-001P, RU000A101LB7 Облигация биржевая, 4B02-252-01481-B-001P, RU000A101LF8 Облигация биржевая, 4B02-258-01481-B-001P, RU000A101SS6 Облигация биржевая, 4B02-254-01481-B-001P, RU000A101MK6 Облигация биржевая, 4B02-253-01481-B-001P, RU000A101MH2 Облигация биржевая, 4B02-262-01481-B-001P, RU000A101QJ9 Облигация биржевая, 4B02-256-01481-B-001P Облигация биржевая, 4B02-261-01481-B-001P Облигация биржевая, 4B02-260-01481-B-001P Облигация биржевая, 4B02-259-01481-B-001P Облигация биржевая, 4B02-265-01481-B-001P, RU000A101QV4 Облигация биржевая, 4B02-266-01481-B-001P, RU000A101QY8 Облигация биржевая, 4B02-269-01481-B-001P, RU000A101QT8 Облигация биржевая, 4B02-264-01481-B-001P, RU000A101QW2 Облигация биржевая, 4B02-270-01481-B-001P, RU000A101QX0 Облигация биржевая, 4B02-272-01481-B-001P, RU000A101S32 Облигация биржевая, 4B02-274-01481-B-001P, RU000A101SW8 Облигация биржевая, 4B02-277-01481-B-001P, RU000A101T23 Облигация биржевая, 4B02-276-01481-B-001P, RU000A101T31 Облигация биржевая, 4B02-279-01481-B-001P, RU000A101TZ9 Облигация биржевая, 4B02-282-01481-B-001P, RU000A101V11 Облигация биржевая, 4B02-281-01481-B-001P, RU000A101UZ7 Облигация биржевая, 4B02-283-01481-B-001P, RU000A101V03 Облигация биржевая, 4B02-284-01481-B-001P, RU000A101VL5 Облигация биржевая, 4B02-285-01481-B-001P, RU000A101VK7 Облигация биржевая, 4B02-286-01481-B-001P, RU000A101VS0 Облигация биржевая, 4B02-289-01481-B-001P, RU000A101W28 Облигация биржевая, 4B02-291-01481-B-001P, RU000A101WT6 Облигация биржевая, 4B02-290-01481-B-001P, RU000A101W36 Облигация биржевая, 4B02-292-01481-B-001P, RU000A101WG3 Облигация биржевая, 4B02-293-01481-B-001P, RU000A101WV2 Облигация биржевая, 4B02-294-01481-B-001P, RU000A101WU4 Облигация биржевая, 4B02-295-01481-B-001P, RU000A101Y83 Облигация биржевая, 4B02-296-01481-B-001P, RU000A101Y75 Облигация биржевая, 4B02-298-01481-B-001P, RU000A101ZQ5 Облигация биржевая, 4B02-297-01481-B-001P, RU000A101YG9 Облигация биржевая, 4B02-299-01481-B-001P, RU000A101ZL6 Облигация биржевая, 4B02-301-01481-B-001P, RU000A101ZV5 Облигация биржевая, 4B02-304-01481-B-001P, RU000A101ZR3 Облигация биржевая, 4B02-303-01481-B-001P, RU000A101ZS1 Облигация биржевая, 4B02-307-01481-B-001P, RU000A1020G5 Облигация биржевая, 4B02-306-01481-B-001P, RU000A1020F7 Облигация биржевая, 4B02-309-01481-B-001P, RU000A102176 Облигация биржевая, 4B02-308-01481-B-001P, RU000A102168 Облигация биржевая, 4B02-310-01481-B-001P, RU000A1021M1 Облигация биржевая, 4B02-311-01481-B-001P, RU000A1021N9 Облигация биржевая, 4B02-312-01481-B-001P, RU000A1021P4 Облигация биржевая, 4B02-313-01481-B-001P, RU000A1021Q2 Облигация биржевая, 4B02-314-01481-B-001P, RU000A102242 Облигация биржевая, 4B02-315-01481-B-001P, RU000A102259 Облигация биржевая, 4B02-318-01481-B-001P, RU000A102283 Облигация биржевая, 4B02-316-01481-B-001P, RU000A102267 Облигация биржевая, 4B02-321-01481-B-001P, RU000A1022R8 Облигация биржевая, 4B02-319-01481-B-001P, RU000A1022N7 Облигация биржевая, 4B02-323-01481-B-001P, RU000A102358 Облигация биржевая, 4B02-324-01481-B-001P, RU000A102341 Облигация биржевая, 4B02-326-01481-B-001P, RU000A102416 Облигация биржевая, 4B02-328-01481-B-001P, RU000A1023Y2 Облигация биржевая, 4B02-327-01481-B-001P, RU000A1023X4 Облигация биржевая, 4B02-325-01481-B-001P, RU000A1023Z9 Облигация биржевая, 4B02-330-01481-B-001P, RU000A1024M5 Облигация биржевая, 4B02-329-01481-B-001P, RU000A1024N3 Облигация биржевая, 4B02-331-01481-B-001P, RU000A1024T0 Облигация биржевая, 4B02-332-01481-B-001P, RU000A1025J8 Облигация биржевая, 4B02-333-01481-B-001P, RU000A1025L4 Облигация биржевая, 4B02-334-01481-B-001P, RU000A1025K6 Облигация биржевая, 4B02-337-01481-B-001P, RU000A1025S9 Облигация биржевая, 4B02-336-01481-B-001P, RU000A1025R1 Облигация биржевая, 4B02-340-01481-B-001P, RU000A102622 Облигация биржевая, 4B02-339-01481-B-001P, RU000A102614 Облигация биржевая, 4B02-341-01481-B-001P, RU000A1026E7 Облигация биржевая, 4B02-344-01481-B-001P, RU000A1026M0 Облигация биржевая, 4B02-342-01481-B-001P, RU000A1026N8 Облигация биржевая, 4B02-343-01481-B-001P, RU000A1026P3 Облигация биржевая, 4B02-346-01481-B-001P, RU000A1027A3 Облигация биржевая, 4B02-347-01481-B-001P, RU000A1027B1 Облигация биржевая, 4B02-354-01481-B-001P, RU000A1029C5 Облигация биржевая, 4B02-355-01481-B-001P, RU000A1029E1 Облигация биржевая, 4B02-352-01481-B-001P, RU000A1028J2 Облигация биржевая, 4B02-353-01481-B-001P, RU000A1028K0 Облигация биржевая, 4B02-357-01481-B-001P, RU000A102A56 Облигация биржевая, 4B02-356-01481-B-001P, RU000A102A64 Облигация биржевая, 4B02-358-01481-B-001P, RU000A1029R3 Облигация биржевая, 4B02-359-01481-B-001P, RU000A1029Q5 Облигация биржевая, 4B02-360-01481-B-001P, RU000A1029S1 Облигация биржевая, 4B02-361-01481-B-001P, RU000A1029W3 Облигация биржевая, 4B02-363-01481-B-001P, RU000A102A72 Облигация биржевая, 4B02-364-01481-B-001P, RU000A102A80 Облигация биржевая, 4B02-371-01481-B-001P, RU000A102FQ5 Облигация биржевая, 4B02-367-01481-B-001P, RU000A102BE0 Облигация биржевая, 4B02-372-01481-B-001P, RU000A102BZ5 Облигация биржевая, 4B02-373-01481-B-001P, RU000A102C13 Облигация биржевая, 4B02-374-01481-B-001P, RU000A102BR2 Облигация биржевая, 4B02-375-01481-B-001P, RU000A102BS0 Облигация биржевая, 4B02-376-01481-B-001P, RU000A102C88 Облигация биржевая, 4B02-378-01481-B-001P, RU000A102CA6 Облигация биржевая, 4B02-377-01481-B-001P, RU000A102C96 Облигация биржевая, 4B02-379-01481-B-001P, RU000A102D38 Облигация биржевая, 4B02-380-01481-B-001P, RU000A102D87 Облигация биржевая, 4B02-382-01481-B-001P, RU000A102D61 Облигация биржевая, 4B02-381-01481-B-001P, RU000A102D53 Облигация биржевая, 4B02-387-01481-B-001P Облигация биржевая, 4B02-383-01481-B-001P, RU000A102DG1 Облигация биржевая, 4B02-384-01481-B-001P, RU000A102DF3 Облигация биржевая, 4B02-385-01481-B-001P, RU000A102DV0 Облигация биржевая, 4B02-389-01481-B-001P, RU000A102FL6 Облигация биржевая, 4B02-393-01481-B-001P, RU000A102GL4 Облигация биржевая, 4B02-392-01481-B-001P, RU000A102GH2 Облигация биржевая, 4B02-391-01481-B-001P, RU000A102GG4 Облигация биржевая, 4B02-390-01481-B-001P, RU000A102G76 Облигация биржевая, 4B02-394-01481-B-001P, RU000A102GM2 Облигация биржевая, 4B02-395-01481-B-001P, RU000A102GN0 Облигация биржевая, 4B02-396-01481-B-001P, RU000A102GP5 Облигация биржевая, 4B02-397-01481-B-001P, RU000A102GQ3 Облигация биржевая, 4B02-398-01481-B-001P, RU000A102GR1 Облигация биржевая, 4B02-399-01481-B-001P, RU000A102GZ4 Облигация биржевая, 4B02-401-01481-B-001P, RU000A102HK4 Облигация биржевая, 4B02-400-01481-B-001P, RU000A102HH0 Облигация биржевая, 4B02-405-01481-B-001P, RU000A102JW5 Облигация биржевая, 4B02-407-01481-B-001P, RU000A103968 Облигация биржевая, 4B02-408-01481-B-001P, RU000A103JQ5 Облигация биржевая, 4B02-409-01481-B-001P Облигация биржевая, 4B02-410-01481-B-001P, RU000A102WA4 Облигация биржевая, 4B02-411-01481-B-001P, RU000A103281 Облигация биржевая, 4B02-412-01481-B-001P Облигация биржевая, 4B02-413-01481-B-001P Облигация биржевая, 4B02-414-01481-B-001P, RU000A104Y31 Облигация биржевая, 4B02-415-01481-B-001P, RU000A103TL5 Облигация биржевая, 4B02-416-01481-B-001P, RU000A102V69 Облигация биржевая, 4B02-417-01481-B-001P Облигация биржевая, 4B02-418-01481-B-001P, RU000A1031G2 Облигация биржевая, 4B02-419-01481-B-001P, RU000A102UC4 Облигация биржевая, 4B02-420-01481-B-001P, RU000A102RA4 Облигация корпоративная, 4-02-01481-B-002P, RU000A102HC1 Облигация биржевая, 4B02-421-01481-B-001P Облигация биржевая, 4B02-422-01481-B-001P, RU000A103976 Облигация биржевая, 4B02-424-01481-B-001P, RU000A103TN1 Облигация биржевая, 4B02-426-01481-B-001P, RU000A102SU0 Облигация биржевая, 4B02-423-01481-B-001P, RU000A102RC0 Облигация биржевая, 4B02-425-01481-B-001P, RU000A102RD8 Облигация биржевая, 4B02-427-01481-B-001P, RU000A102RE6 Облигация биржевая, 4B02-430-01481-B-001P, RU000A102RR8 Облигация биржевая, 4B02-433-01481-B-001P, RU000A102TD4 Облигация биржевая, 4B02-434-01481-B-001P, RU000A102TH5 Облигация биржевая, 4B02-435-01481-B-001P, RU000A102VD0 Облигация биржевая, 4B02-438-01481-B-001P, RU000A102W50 Облигация биржевая, 4B02-436-01481-B-001P, RU000A102W35 Облигация биржевая, 4B02-439-01481-B-001P, RU000A102WB2 Облигация биржевая, 4B02-440-01481-B-001P, RU000A102WC0 Облигация биржевая, 4B02-441-01481-B-001P, RU000A102X26 Облигация биржевая, 4B02-443-01481-B-001P, RU000A102YH5 Облигация биржевая, 4B02-442-01481-B-001P, RU000A102YG7 Облигация биржевая, 4B02-444-01481-B-001P, RU000A102ZZ4 Облигация биржевая, 4B02-445-01481-B-001P, RU000A103299 Облигация биржевая, 4B02-446-01481-B-001P, RU000A1031H0 Облигация биржевая, 4B02-448-01481-B-001P, RU000A103216 Облигация биржевая, 4B02-449-01481-B-001P, RU000A103273 Облигация биржевая, 4B02-450-01481-B-001P, RU000A1032C9 Облигация биржевая, 4B02-451-01481-B-001P, RU000A1032N6 Облигация биржевая, 4B02-452-01481-B-001P, RU000A1032K2 Облигация биржевая, 4B02-453-01481-B-001P, RU000A1032L0 Облигация биржевая, 4B02-454-01481-B-001P, RU000A103471 Облигация биржевая, 4B02-455-01481-B-001P, RU000A103539 Облигация биржевая, 4B02-457-01481-B-001P, RU000A103588 Облигация биржевая, 4B02-458-01481-B-001P, RU000A103596 Облигация биржевая, 4B02-459-01481-B-001P, RU000A103661 Облигация биржевая, 4B02-460-01481-B-001P, RU000A1038U8 Облигация биржевая, 4B02-461-01481-B-001P, RU000A103AF7 Облигация биржевая, 4B02-464-01481-B-001P, RU000A103AM3 Облигация биржевая, 4B02-465-01481-B-001P, RU000A103AP6 Облигация биржевая, 4B02-463-01481-B-001P, RU000A103AL5 Облигация биржевая, 4B02-466-01481-B-001P, RU000A103C79 Облигация биржевая, 4B02-467-01481-B-001P, RU000A103C87 Облигация биржевая, 4B02-468-01481-B-001P, RU000A103CP2 Облигация биржевая, 4B02-469-01481-B-001P, RU000A103CR8 Облигация биржевая, 4B02-474-01481-B-001P, RU000A103G42 Облигация биржевая, 4B02-475-01481-B-001P, RU000A103G59 Облигация биржевая, 4B02-476-01481-B-001P Облигация биржевая, 4B02-470-01481-B-001P, RU000A103F92 Облигация биржевая, 4B02-471-01481-B-001P, RU000A103FA7 Облигация биржевая, 4B02-472-01481-B-001P, RU000A103FB5 Облигация биржевая, 4B02-473-01481-B-001P, RU000A103FM2 Облигация биржевая, 4B02-478-01481-B-001P, RU000A103H66 Облигация биржевая, 4B02-479-01481-B-001P, RU000A103HE5 Облигация биржевая, 4B02-480-01481-B-001P, RU000A103JB7 Облигация биржевая, 4B02-481-01481-B-001P, RU000A103KG4 Облигация биржевая, 4B02-483-01481-B-001P, RU000A103LE7 Облигация биржевая, 4B02-482-01481-B-001P, RU000A103LD9 Облигация биржевая, 4B02-485-01481-B-001P, RU000A103LG2 Облигация биржевая, 4B02-484-01481-B-001P, RU000A103LF4 Облигация биржевая, 4B02-486-01481-B-001P, RU000A103MW7 Облигация биржевая, 4B02-487-01481-B-001P, RU000A103P25 Облигация биржевая, 4B02-488-01481-B-001P, RU000A103PF5 Облигация биржевая, 4B02-489-01481-B-001P, RU000A103PH1 Облигация корпоративная, 4-03-01481-B-002P, RU000A103Q24 Облигация корпоративная, 4-04-01481-B-002P, RU000A103QW8 Облигация биржевая, 4B02-490-01481-B-001P, RU000A103RU0 Облигация биржевая, 4B02-491-01481-B-001P, RU000A103RV8 Облигация биржевая, 4B02-492-01481-B-001P, RU000A103RW6 Облигация корпоративная, 4-05-01481-B-002P, RU000A103QX6 Облигация биржевая, 4B02-493-01481-B-001P, RU000A103RX4 Облигация биржевая, 4B02-497-01481-B-001P, RU000A103V84 Облигация биржевая, 4B02-494-01481-B-001P, RU000A103UP4 Облигация биржевая, 4B02-495-01481-B-001P, RU000A103UQ2 Облигация биржевая, 4B02-496-01481-B-001P, RU000A103UR0 Облигация биржевая, 4B02-498-01481-B-001P, RU000A103VP2 Облигация биржевая, 4B02-499-01481-B-001P, RU000A103VQ0 Облигация биржевая, 4B02-500-01481-B-001P, RU000A103WV8 Облигация биржевая, 4B02-501-01481-B-001P, RU000A103X90 Облигация биржевая, 4B02-506-01481-B-001P, RU000A103Y57 Облигация биржевая, 4B02-505-01481-B-001P, RU000A103Y40 Облигация биржевая, 4B02-502-01481-B-001P Облигация биржевая, 4B02-503-01481-B-001P, RU000A103Y16 Облигация биржевая, 4B02-504-01481-B-001P, RU000A103Y32 Облигация биржевая, 4B02-507-01481-B-001P, RU000A103YV4 Облигация биржевая, 4B02-508-01481-B-001P Облигация биржевая, 4B02-509-01481-B-001P, RU000A103ZJ6 Облигация биржевая, 4B02-510-01481-B-001P, RU000A103ZH0 Облигация биржевая, 4B02-511-01481-B-001P, RU000A1040J7 Облигация биржевая, 4B02-512-01481-B-001P, RU000A1040T6 Облигация биржевая, 4B02-513-01481-B-001P, RU000A1040U4 Облигация биржевая, 4B02-514-01481-B-001P, RU000A1040Y6 Облигация биржевая, 4B02-515-01481-B-001P, RU000A1041N7 Облигация биржевая, 4B02-516-01481-B-001P, RU000A1041M9 Облигация биржевая, 4B02-517-01481-B-001P, RU000A1043H5 Облигация биржевая, 4B02-518-01481-B-001P, RU000A1044Z5 Облигация биржевая, 4B02-519-01481-B-001P, RU000A1044Y8 Облигация биржевая, 4B02-520-01481-B-001P, RU000A1044X0 Облигация биржевая, 4B02-521-01481-B-001P, RU000A1044W2 Облигация биржевая, 4B02-522-01481-B-001P, RU000A1044V4 Облигация биржевая, 4B02-523-01481-B-001P, RU000A1045F4 Облигация биржевая, 4B02-525-01481-B-001P Облигация биржевая, 4B02-524-01481-B-001P, RU000A104644 Облигация биржевая, 4B02-526-01481-B-001P, RU000A1047L8 Облигация биржевая, 4B02-527-01481-B-001P, RU000A1047M6 Облигация биржевая, 4B02-528-01481-B-001P, RU000A1047N4 Облигация биржевая, 4B02-529-01481-B-001P, RU000A1047P9 Облигация биржевая, 4B02-530-01481-B-001P, RU000A1049R1 Облигация биржевая, 4B02-531-01481-B-001P, RU000A104A96 Облигация биржевая, 4B02-535-01481-B-001P, RU000A104AH1 Облигация биржевая, 4B02-534-01481-B-001P, RU000A104AG3 Облигация биржевая, 4B02-533-01481-B-001P, RU000A104AF5 Облигация биржевая, 4B02-532-01481-B-001P, RU000A104AE8 Облигация биржевая, 4B02-538-01481-B-001P, RU000A104CY2 Облигация биржевая, 4B02-539-01481-B-001P, RU000A104CZ9 Облигация биржевая, 4B02-537-01481-B-001P, RU000A104CS4 Облигация биржевая, 4B02-536-01481-B-001P, RU000A104CR6 Облигация биржевая, 4B02-540-01481-B-001P, RU000A104ES0 Облигация биржевая, 4B02-541-01481-B-001P, RU000A104FL2 Облигация биржевая, 4B02-542-01481-B-001P, RU000A104FK4 Облигация биржевая, 4B02-544-01481-B-001P, RU000A104FH0 Облигация биржевая, 4B02-546-01481-B-001P, RU000A104FZ2 Облигация биржевая, 4B02-548-01481-B-001P, RU000A104H08 Облигация биржевая, 4B02-549-01481-B-001P, RU000A104JY7 Облигация биржевая, 4B02-550-01481-B-001P, RU000A104JX9 Облигация биржевая, 4B02-551-01481-B-001P, RU000A104KE7 Облигация биржевая, 4B02-552-01481-B-001P, RU000A104KK4 Облигация биржевая, 4B02-553-01481-B-001P, RU000A104KL2 Облигация биржевая, 4B02-554-01481-B-001P, RU000A104KX7 Облигация биржевая, 4B02-555-01481-B-001P, RU000A104KY5 Облигация биржевая, 4B02-556-01481-B-001P, RU000A104KZ2 Облигация биржевая, 4B02-558-01481-B-001P Облигация биржевая, 4B02-557-01481-B-001P, RU000A104L02 Облигация биржевая, 4B02-559-01481-B-001P, RU000A105179 Облигация биржевая, 4B02-560-01481-B-001P, RU000A105161 Облигация биржевая, 4B02-561-01481-B-001P, RU000A105401 Облигация биржевая, 4B02-562-01481-B-001P, RU000A1054X9 Облигация биржевая, 4B02-563-01481-B-001P, RU000A105666 Облигация биржевая, 4B02-564-01481-B-001P Облигация биржевая, 4B02-565-01481-B-001P, RU000A1057K9 Облигация биржевая, 4B02-566-01481-B-001P Облигация биржевая, 4B02-568-01481-B-001P, RU000A1059D0 Облигация биржевая, 4B02-570-01481-B-001P, RU000A105BK0 Облигация биржевая, 4B02-572-01481-B-001P, RU000A105GQ6 Облигация биржевая, 4B02-575-01481-B-001P, RU000A105MD2 Облигация биржевая, 4B02-577-01481-B-001P, RU000A105PA1 Облигация биржевая, 4B02-579-01481-B-001P, RU000A105R96 Облигация биржевая, 4B02-581-01481-B-001P, RU000A105S87 Облигация биржевая, 4B02-582-01481-B-001P, RU000A105SD9 Облигация биржевая, 4B02-583-01481-B-001P Облигация биржевая, 4B02-586-01481-B-001P, RU000A105W57 Облигация биржевая, 4B02-587-01481-B-001P, RU000A105WX9 Облигация биржевая, 4B02-589-01481-B-001P, RU000A105ZR4 Облигация биржевая, 4B02-590-01481-B-001P, RU000A1061E4 Облигация биржевая, 4B02-593-01481-B-001P, RU000A1065F2 Облигация биржевая, 4B02-594-01481-B-001P, RU000A1067A9 Облигация биржевая, 4B02-02-01481-B-002P, RU000A1069P3 Облигация биржевая, 4B02-596-01481-B-001P, RU000A106AB9 Облигация биржевая, 4B02-598-01481-B-001P, RU000A106AQ7 Облигация биржевая, 4B02-597-01481-B-001P, RU000A106AP9 Облигация биржевая, 4B02-600-01481-B-001P, RU000A106D83 Облигация биржевая, 4B02-602-01481-B-001P, RU000A106EU1 Облигация биржевая, 4B02-603-01481-B-001P, RU000A106EX5 Облигация биржевая, 4B02-604-01481-B-001P, RU000A106G64 Облигация биржевая, 4B02-606-01481-B-001P Облигация биржевая, 4B02-607-01481-B-001P, RU000A106L18 Облигация биржевая, 4B02-609-01481-B-001P, RU000A106M09 Облигация биржевая, 4B02-608-01481-B-001P, RU000A106LZ5 Облигация биржевая, 4B02-610-01481-B-001P, RU000A106QL4 Облигация биржевая, 4B02-611-01481-B-001P, RU000A106RY5 Облигация биржевая, 4B02-612-01481-B-001P, RU000A106SD7 Облигация биржевая, 4B02-613-01481-B-001P, RU000A106TT1 Облигация биржевая, 4B02-614-01481-B-001P, RU000A106TU9 Облигация биржевая, 4B02-615-01481-B-001P, RU000A106V99 Облигация биржевая, 4B02-616-01481-B-001P, RU000A106XQ9 Облигация биржевая, 4B02-619-01481-B-001P, RU000A106YU9 Облигация биржевая, 4B02-617-01481-B-001P, RU000A106XR7 Облигация биржевая, 4B02-618-01481-B-001P, RU000A106Y96 Облигация биржевая, 4B02-620-01481-B-001P, RU000A107464 Облигация биржевая, 4B02-621-01481-B-001P, RU000A1074S7 Облигация биржевая, 4B02-622-01481-B-001P, RU000A107514 Облигация биржевая, 4B02-623-01481-B-001P, RU000A107704 Облигация биржевая, 4B02-624-01481-B-001P, RU000A107845 Облигация биржевая, 4B02-625-01481-B-001P, RU000A107985 Облигация биржевая, 4B02-626-01481-B-001P, RU000A1079B2 Облигация биржевая, 4B02-03-01481-B-002P Облигация биржевая, 4B02-04-01481-B-002P Облигация биржевая, 4B02-628-01481-B-001P, RU000A107DB1 Облигация биржевая, 4B02-629-01481-B-001P, RU000A107DC9 Облигация биржевая, 4B02-630-01481-B-001P, RU000A107J45 Облигация биржевая, 4B02-631-01481-B-001P, RU000A107P88 Облигация биржевая, 4B02-632-01481-B-001P, RU000A107Q04 Облигация биржевая, 4B02-633-01481-B-001P, RU000A107RW7 Облигация биржевая, 4B02-636-01481-B-001P, RU000A107S77 Облигация биржевая, 4B02-635-01481-B-001P, RU000A107S69 Облигация биржевая, 4B02-634-01481-B-001P, RU000A107S51 Облигация биржевая, 4B02-637-01481-B-001P, RU000A107SR5 Облигация биржевая, 4B02-638-01481-B-001P, RU000A107UR1 Облигация биржевая, 4B02-639-01481-B-001P, RU000A107W97 Облигация биржевая, 4B02-640-01481-B-001P, RU000A107Y46 Облигация биржевая, 4B02-641-01481-B-001P, RU000A1080R6 Облигация биржевая, 4B02-642-01481-B-001P, RU000A1080T2 Облигация биржевая, 4B02-643-01481-B-001P, RU000A1080W6 Облигация биржевая, 4B02-644-01481-B-001P, RU000A108413 Облигация биржевая, 4B02-645-01481-B-001P, RU000A108421 Облигация биржевая, 4B02-646-01481-B-001P, RU000A1088K4 Облигация биржевая, 4B02-647-01481-B-001P, RU000A1088L2 Облигация биржевая, 4B02-648-01481-B-001P, RU000A108C09 Облигация биржевая, 4B02-649-01481-B-001P</t>
-  </si>
-  <si>
-    <t>Акция обыкновенная, 10301481B, RU0009029540 Облигация биржевая, 4B024601481B001P Облигация биржевая, 4B028801481B001P, RU000A100DS0 Облигация биржевая, 4B029101481B001P, RU000A100EC2 Облигация биржевая, 4B0210901481B001P, RU000A100KZ0 Облигация биржевая, 4B0211601481B001P, RU000A100MZ6 Облигация биржевая, 4B0212301481B001P, RU000A100PX4 Облигация биржевая, 4B0213901481B001P, RU000A100TP2 Облигация биржевая, 4B0215201481B001P, RU000A100VV6 Облигация биржевая, 4B0215701481B001P, RU000A100X36 Облигация биржевая, 4B0215801481B001P, RU000A100YB2 Облигация биржевая, 4B0216301481B001P, RU000A100Z75 Облигация биржевая, 4B0216701481B001P, RU000A101103 Облигация биржевая, 4B0217101481B001P, RU000A1011K6 Облигация биржевая, 4B0216901481B001P, RU000A1011F6 Облигация биржевая, 4B0217001481B001P, RU000A1011H2 Облигация биржевая, 4B0217901481B001P, RU000A101400 Облигация биржевая, 4B0218301481B001P, RU000A1015U6 Облигация биржевая, 4B0218601481B001P, RU000A101640 Облигация биржевая, 4B0218501481B001P, RU000A101657 Облигация биржевая, 4B0218901481B001P, RU000A1017R8 Облигация биржевая, 4B0219001481B001P, RU000A1017Q0 Облигация биржевая, 4B0219501481B001P, RU000A1019T0 Облигация биржевая, 4B0221001481B001P, RU000A101DR0 Облигация биржевая, 4B0221701481B001P, RU000A101C14 Облигация биржевая, 4B0221101481B001P, RU000A101FQ7 Облигация биржевая, 4B0221201481B001P, RU000A101CY8 Облигация биржевая, 4B0221301481B001P, RU000A101EL1 Облигация биржевая, 4B0221401481B001P, RU000A101EB2 Облигация биржевая, 4B0220801481B001P, RU000A101D62 Облигация биржевая, 4B0221501481B001P, RU000A101ED8 Облигация биржевая, 4B0221601481B001P, RU000A101C48 Облигация биржевая, 4B02-220-01481-B-001P, RU000A101FD5 Облигация биржевая, 4B02-224-01481-B-001P, RU000A101GP7 Облигация биржевая, 4B02-226-01481-B-001P, RU000A101GF8 Облигация биржевая, 4B02-231-01481-B-001P, RU000A101HG4 Облигация биржевая, 4B02-230-01481-B-001P, RU000A101HH2 Облигация биржевая, 4B02-232-01481-B-001P, RU000A101HF6 Облигация биржевая, 4B02-234-01481-B-001P, RU000A101JW7 Облигация биржевая, 4B02-229-01481-B-001P, RU000A101GT9 Облигация биржевая, 4B02-233-01481-B-001P, RU000A101HK6 Облигация биржевая, 4B02-236-01481-B-001P, RU000A101J58 Облигация биржевая, 4B02-237-01481-B-001P, RU000A101J41 Облигация биржевая, 4B02-243-01481-B-001P, RU000A101KF0 Облигация биржевая, 4B02-241-01481-B-001P, RU000A101KH6 Облигация биржевая, 4B02-250-01481-B-001P, RU000A101LT9 Облигация биржевая, 4B02-251-01481-B-001P, RU000A101LU7 Облигация биржевая, 4B02-247-01481-B-001P, RU000A101L21 Облигация биржевая, 4B02-249-01481-B-001P, RU000A101LB7 Облигация биржевая, 4B02-252-01481-B-001P, RU000A101LF8 Облигация биржевая, 4B02-258-01481-B-001P, RU000A101SS6 Облигация биржевая, 4B02-254-01481-B-001P, RU000A101MK6 Облигация биржевая, 4B02-253-01481-B-001P, RU000A101MH2 Облигация биржевая, 4B02-262-01481-B-001P, RU000A101QJ9 Облигация биржевая, 4B02-256-01481-B-001P Облигация биржевая, 4B02-261-01481-B-001P Облигация биржевая, 4B02-260-01481-B-001P Облигация биржевая, 4B02-259-01481-B-001P Облигация биржевая, 4B02-265-01481-B-001P, RU000A101QV4 Облигация биржевая, 4B02-266-01481-B-001P, RU000A101QY8 Облигация биржевая, 4B02-269-01481-B-001P, RU000A101QT8 Облигация биржевая, 4B02-264-01481-B-001P, RU000A101QW2 Облигация биржевая, 4B02-270-01481-B-001P, RU000A101QX0 Облигация биржевая, 4B02-272-01481-B-001P, RU000A101S32 Облигация биржевая, 4B02-274-01481-B-001P, RU000A101SW8 Облигация биржевая, 4B02-277-01481-B-001P, RU000A101T23 Облигация биржевая, 4B02-276-01481-B-001P, RU000A101T31 Облигация биржевая, 4B02-279-01481-B-001P, RU000A101TZ9 Облигация биржевая, 4B02-282-01481-B-001P, RU000A101V11 Облигация биржевая, 4B02-281-01481-B-001P, RU000A101UZ7 Облигация биржевая, 4B02-283-01481-B-001P, RU000A101V03 Облигация биржевая, 4B02-284-01481-B-001P, RU000A101VL5 Облигация биржевая, 4B02-285-01481-B-001P, RU000A101VK7 Облигация биржевая, 4B02-286-01481-B-001P, RU000A101VS0 Облигация биржевая, 4B02-289-01481-B-001P, RU000A101W28 Облигация биржевая, 4B02-291-01481-B-001P, RU000A101WT6 Облигация биржевая, 4B02-290-01481-B-001P, RU000A101W36 Облигация биржевая, 4B02-292-01481-B-001P, RU000A101WG3 Облигация биржевая, 4B02-293-01481-B-001P, RU000A101WV2 Облигация биржевая, 4B02-294-01481-B-001P, RU000A101WU4 Облигация биржевая, 4B02-295-01481-B-001P, RU000A101Y83 Облигация биржевая, 4B02-296-01481-B-001P, RU000A101Y75 Облигация биржевая, 4B02-298-01481-B-001P, RU000A101ZQ5 Облигация биржевая, 4B02-297-01481-B-001P, RU000A101YG9 Облигация биржевая, 4B02-299-01481-B-001P, RU000A101ZL6 Облигация биржевая, 4B02-301-01481-B-001P, RU000A101ZV5 Облигация биржевая, 4B02-304-01481-B-001P, RU000A101ZR3 Облигация биржевая, 4B02-303-01481-B-001P, RU000A101ZS1 Облигация биржевая, 4B02-307-01481-B-001P, RU000A1020G5 Облигация биржевая, 4B02-306-01481-B-001P, RU000A1020F7 Облигация биржевая, 4B02-309-01481-B-001P, RU000A102176 Облигация биржевая, 4B02-308-01481-B-001P, RU000A102168 Облигация биржевая, 4B02-310-01481-B-001P, RU000A1021M1 Облигация биржевая, 4B02-311-01481-B-001P, RU000A1021N9 Облигация биржевая, 4B02-312-01481-B-001P, RU000A1021P4 Облигация биржевая, 4B02-313-01481-B-001P, RU000A1021Q2 Облигация биржевая, 4B02-314-01481-B-001P, RU000A102242 Облигация биржевая, 4B02-315-01481-B-001P, RU000A102259 Облигация биржевая, 4B02-318-01481-B-001P, RU000A102283 Облигация биржевая, 4B02-316-01481-B-001P, RU000A102267 Облигация биржевая, 4B02-321-01481-B-001P, RU000A1022R8 Облигация биржевая, 4B02-319-01481-B-001P, RU000A1022N7 Облигация биржевая, 4B02-323-01481-B-001P, RU000A102358 Облигация биржевая, 4B02-324-01481-B-001P, RU000A102341 Облигация биржевая, 4B02-326-01481-B-001P, RU000A102416 Облигация биржевая, 4B02-328-01481-B-001P, RU000A1023Y2 Облигация биржевая, 4B02-327-01481-B-001P, RU000A1023X4 Облигация биржевая, 4B02-325-01481-B-001P, RU000A1023Z9 Облигация биржевая, 4B02-330-01481-B-001P, RU000A1024M5 Облигация биржевая, 4B02-329-01481-B-001P, RU000A1024N3 Облигация биржевая, 4B02-331-01481-B-001P, RU000A1024T0 Облигация биржевая, 4B02-332-01481-B-001P, RU000A1025J8 Облигация биржевая, 4B02-333-01481-B-001P, RU000A1025L4 Облигация биржевая, 4B02-334-01481-B-001P, RU000A1025K6 Облигация биржевая, 4B02-337-01481-B-001P, RU000A1025S9 Облигация биржевая, 4B02-336-01481-B-001P, RU000A1025R1 Облигация биржевая, 4B02-340-01481-B-001P, RU000A102622 Облигация биржевая, 4B02-339-01481-B-001P, RU000A102614 Облигация биржевая, 4B02-341-01481-B-001P, RU000A1026E7 Облигация биржевая, 4B02-344-01481-B-001P, RU000A1026M0 Облигация биржевая, 4B02-342-01481-B-001P, RU000A1026N8 Облигация биржевая, 4B02-343-01481-B-001P, RU000A1026P3 Облигация биржевая, 4B02-346-01481-B-001P, RU000A1027A3 Облигация биржевая, 4B02-347-01481-B-001P, RU000A1027B1 Облигация биржевая, 4B02-354-01481-B-001P, RU000A1029C5 Облигация биржевая, 4B02-355-01481-B-001P, RU000A1029E1 Облигация биржевая, 4B02-352-01481-B-001P, RU000A1028J2 Облигация биржевая, 4B02-353-01481-B-001P, RU000A1028K0 Облигация биржевая, 4B02-357-01481-B-001P, RU000A102A56 Облигация биржевая, 4B02-356-01481-B-001P, RU000A102A64 Облигация биржевая, 4B02-358-01481-B-001P, RU000A1029R3 Облигация биржевая, 4B02-359-01481-B-001P, RU000A1029Q5 Облигация биржевая, 4B02-360-01481-B-001P, RU000A1029S1 Облигация биржевая, 4B02-361-01481-B-001P, RU000A1029W3 Облигация биржевая, 4B02-363-01481-B-001P, RU000A102A72 Облигация биржевая, 4B02-364-01481-B-001P, RU000A102A80 Облигация биржевая, 4B02-371-01481-B-001P, RU000A102FQ5 Облигация биржевая, 4B02-367-01481-B-001P, RU000A102BE0 Облигация биржевая, 4B02-372-01481-B-001P, RU000A102BZ5 Облигация биржевая, 4B02-373-01481-B-001P, RU000A102C13 Облигация биржевая, 4B02-374-01481-B-001P, RU000A102BR2 Облигация биржевая, 4B02-375-01481-B-001P, RU000A102BS0 Облигация биржевая, 4B02-376-01481-B-001P, RU000A102C88 Облигация биржевая, 4B02-378-01481-B-001P, RU000A102CA6 Облигация биржевая, 4B02-377-01481-B-001P, RU000A102C96 Облигация биржевая, 4B02-379-01481-B-001P, RU000A102D38 Облигация биржевая, 4B02-380-01481-B-001P, RU000A102D87 Облигация биржевая, 4B02-382-01481-B-001P, RU000A102D61 Облигация биржевая, 4B02-381-01481-B-001P, RU000A102D53 Облигация биржевая, 4B02-387-01481-B-001P Облигация биржевая, 4B02-383-01481-B-001P, RU000A102DG1 Облигация биржевая, 4B02-384-01481-B-001P, RU000A102DF3 Облигация биржевая, 4B02-385-01481-B-001P, RU000A102DV0 Облигация биржевая, 4B02-389-01481-B-001P, RU000A102FL6 Облигация биржевая, 4B02-393-01481-B-001P, RU000A102GL4 Облигация биржевая, 4B02-392-01481-B-001P, RU000A102GH2 Облигация биржевая, 4B02-391-01481-B-001P, RU000A102GG4 Облигация биржевая, 4B02-390-01481-B-001P, RU000A102G76 Облигация биржевая, 4B02-394-01481-B-001P, RU000A102GM2 Облигация биржевая, 4B02-395-01481-B-001P, RU000A102GN0 Облигация биржевая, 4B02-396-01481-B-001P, RU000A102GP5 Облигация биржевая, 4B02-397-01481-B-001P, RU000A102GQ3 Облигация биржевая, 4B02-398-01481-B-001P, RU000A102GR1 Облигация биржевая, 4B02-399-01481-B-001P, RU000A102GZ4 Облигация биржевая, 4B02-401-01481-B-001P, RU000A102HK4 Облигация биржевая, 4B02-400-01481-B-001P, RU000A102HH0 Облигация биржевая, 4B02-405-01481-B-001P, RU000A102JW5 Облигация биржевая, 4B02-407-01481-B-001P, RU000A103968 Облигация биржевая, 4B02-408-01481-B-001P, RU000A103JQ5 Облигация биржевая, 4B02-409-01481-B-001P Облигация биржевая, 4B02-410-01481-B-001P, RU000A102WA4 Облигация биржевая, 4B02-411-01481-B-001P, RU000A103281 Облигация биржевая, 4B02-412-01481-B-001P Облигация биржевая, 4B02-413-01481-B-001P Облигация биржевая, 4B02-414-01481-B-001P, RU000A104Y31 Облигация биржевая, 4B02-415-01481-B-001P, RU000A103TL5 Облигация биржевая, 4B02-416-01481-B-001P, RU000A102V69 Облигация биржевая, 4B02-417-01481-B-001P Облигация биржевая, 4B02-418-01481-B-001P, RU000A1031G2 Облигация биржевая, 4B02-419-01481-B-001P, RU000A102UC4 Облигация биржевая, 4B02-420-01481-B-001P, RU000A102RA4 Облигация корпоративная, 4-02-01481-B-002P, RU000A102HC1 Облигация биржевая, 4B02-421-01481-B-001P Облигация биржевая, 4B02-422-01481-B-001P, RU000A103976 Облигация биржевая, 4B02-424-01481-B-001P, RU000A103TN1 Облигация биржевая, 4B02-426-01481-B-001P, RU000A102SU0 Облигация биржевая, 4B02-423-01481-B-001P, RU000A102RC0 Облигация биржевая, 4B02-425-01481-B-001P, RU000A102RD8 Облигация биржевая, 4B02-427-01481-B-001P, RU000A102RE6 Облигация биржевая, 4B02-430-01481-B-001P, RU000A102RR8 Облигация биржевая, 4B02-433-01481-B-001P, RU000A102TD4 Облигация биржевая, 4B02-434-01481-B-001P, RU000A102TH5 Облигация биржевая, 4B02-435-01481-B-001P, RU000A102VD0 Облигация биржевая, 4B02-438-01481-B-001P, RU000A102W50 Облигация биржевая, 4B02-436-01481-B-001P, RU000A102W35 Облигация биржевая, 4B02-439-01481-B-001P, RU000A102WB2 Облигация биржевая, 4B02-440-01481-B-001P, RU000A102WC0 Облигация биржевая, 4B02-441-01481-B-001P, RU000A102X26 Облигация биржевая, 4B02-443-01481-B-001P, RU000A102YH5 Облигация биржевая, 4B02-442-01481-B-001P, RU000A102YG7 Облигация биржевая, 4B02-444-01481-B-001P, RU000A102ZZ4 Облигация биржевая, 4B02-445-01481-B-001P, RU000A103299 Облигация биржевая, 4B02-446-01481-B-001P, RU000A1031H0 Облигация биржевая, 4B02-448-01481-B-001P, RU000A103216 Облигация биржевая, 4B02-449-01481-B-001P, RU000A103273 Облигация биржевая, 4B02-450-01481-B-001P, RU000A1032C9 Облигация биржевая, 4B02-451-01481-B-001P, RU000A1032N6 Облигация биржевая, 4B02-452-01481-B-001P, RU000A1032K2 Облигация биржевая, 4B02-453-01481-B-001P, RU000A1032L0 Облигация биржевая, 4B02-454-01481-B-001P, RU000A103471 Облигация биржевая, 4B02-455-01481-B-001P, RU000A103539 Облигация биржевая, 4B02-457-01481-B-001P, RU000A103588 Облигация биржевая, 4B02-458-01481-B-001P, RU000A103596 Облигация биржевая, 4B02-459-01481-B-001P, RU000A103661 Облигация биржевая, 4B02-460-01481-B-001P, RU000A1038U8 Облигация биржевая, 4B02-461-01481-B-001P, RU000A103AF7 Облигация биржевая, 4B02-464-01481-B-001P, RU000A103AM3 Облигация биржевая, 4B02-465-01481-B-001P, RU000A103AP6 Облигация биржевая, 4B02-463-01481-B-001P, RU000A103AL5 Облигация биржевая, 4B02-466-01481-B-001P, RU000A103C79 Облигация биржевая, 4B02-467-01481-B-001P, RU000A103C87 Облигация биржевая, 4B02-468-01481-B-001P, RU000A103CP2 Облигация биржевая, 4B02-469-01481-B-001P, RU000A103CR8 Облигация биржевая, 4B02-474-01481-B-001P, RU000A103G42 Облигация биржевая, 4B02-475-01481-B-001P, RU000A103G59 Облигация биржевая, 4B02-476-01481-B-001P Облигация биржевая, 4B02-470-01481-B-001P, RU000A103F92 Облигация биржевая, 4B02-471-01481-B-001P, RU000A103FA7 Облигация биржевая, 4B02-472-01481-B-001P, RU000A103FB5 Облигация биржевая, 4B02-473-01481-B-001P, RU000A103FM2 Облигация биржевая, 4B02-478-01481-B-001P, RU000A103H66 Облигация биржевая, 4B02-479-01481-B-001P, RU000A103HE5 Облигация биржевая, 4B02-480-01481-B-001P, RU000A103JB7 Облигация биржевая, 4B02-481-01481-B-001P, RU000A103KG4 Облигация биржевая, 4B02-483-01481-B-001P, RU000A103LE7 Облигация биржевая, 4B02-482-01481-B-001P, RU000A103LD9 Облигация биржевая, 4B02-485-01481-B-001P, RU000A103LG2 Облигация биржевая, 4B02-484-01481-B-001P, RU000A103LF4 Облигация биржевая, 4B02-486-01481-B-001P, RU000A103MW7 Облигация биржевая, 4B02-487-01481-B-001P, RU000A103P25 Облигация биржевая, 4B02-488-01481-B-001P, RU000A103PF5 Облигация биржевая, 4B02-489-01481-B-001P, RU000A103PH1 Облигация корпоративная, 4-03-01481-B-002P, RU000A103Q24 Облигация корпоративная, 4-04-01481-B-002P, RU000A103QW8 Облигация биржевая, 4B02-490-01481-B-001P, RU000A103RU0 Облигация биржевая, 4B02-491-01481-B-001P, RU000A103RV8 Облигация биржевая, 4B02-492-01481-B-001P, RU000A103RW6 Облигация корпоративная, 4-05-01481-B-002P, RU000A103QX6 Облигация биржевая, 4B02-493-01481-B-001P, RU000A103RX4 Облигация биржевая, 4B02-497-01481-B-001P, RU000A103V84 Облигация биржевая, 4B02-494-01481-B-001P, RU000A103UP4 Облигация биржевая, 4B02-495-01481-B-001P, RU000A103UQ2 Облигация биржевая, 4B02-496-01481-B-001P, RU000A103UR0 Облигация биржевая, 4B02-498-01481-B-001P, RU000A103VP2 Облигация биржевая, 4B02-499-01481-B-001P, RU000A103VQ0 Облигация биржевая, 4B02-500-01481-B-001P, RU000A103WV8 Облигация биржевая, 4B02-501-01481-B-001P, RU000A103X90 Облигация биржевая, 4B02-506-01481-B-001P, RU000A103Y57 Облигация биржевая, 4B02-505-01481-B-001P, RU000A103Y40 Облигация биржевая, 4B02-502-01481-B-001P Облигация биржевая, 4B02-503-01481-B-001P, RU000A103Y16 Облигация биржевая, 4B02-504-01481-B-001P, RU000A103Y32 Облигация биржевая, 4B02-507-01481-B-001P, RU000A103YV4 Облигация биржевая, 4B02-508-01481-B-001P Облигация биржевая, 4B02-509-01481-B-001P, RU000A103ZJ6 Облигация биржевая, 4B02-510-01481-B-001P, RU000A103ZH0 Облигация биржевая, 4B02-511-01481-B-001P, RU000A1040J7 Облигация биржевая, 4B02-512-01481-B-001P, RU000A1040T6 Облигация биржевая, 4B02-513-01481-B-001P, RU000A1040U4 Облигация биржевая, 4B02-514-01481-B-001P, RU000A1040Y6 Облигация биржевая, 4B02-515-01481-B-001P, RU000A1041N7 Облигация биржевая, 4B02-516-01481-B-001P, RU000A1041M9 Облигация биржевая, 4B02-517-01481-B-001P, RU000A1043H5 Облигация биржевая, 4B02-518-01481-B-001P, RU000A1044Z5 Облигация биржевая, 4B02-519-01481-B-001P, RU000A1044Y8 Облигация биржевая, 4B02-520-01481-B-001P, RU000A1044X0 Облигация биржевая, 4B02-521-01481-B-001P, RU000A1044W2 Облигация биржевая, 4B02-522-01481-B-001P, RU000A1044V4 Облигация биржевая, 4B02-523-01481-B-001P, RU000A1045F4 Облигация биржевая, 4B02-525-01481-B-001P Облигация биржевая, 4B02-524-01481-B-001P, RU000A104644 Облигация биржевая, 4B02-526-01481-B-001P, RU000A1047L8 Облигация биржевая, 4B02-527-01481-B-001P, RU000A1047M6 Облигация биржевая, 4B02-528-01481-B-001P, RU000A1047N4 Облигация биржевая, 4B02-529-01481-B-001P, RU000A1047P9 Облигация биржевая, 4B02-530-01481-B-001P, RU000A1049R1 Облигация биржевая, 4B02-531-01481-B-001P, RU000A104A96 Облигация биржевая, 4B02-535-01481-B-001P, RU000A104AH1 Облигация биржевая, 4B02-534-01481-B-001P, RU000A104AG3 Облигация биржевая, 4B02-533-01481-B-001P, RU000A104AF5 Облигация биржевая, 4B02-532-01481-B-001P, RU000A104AE8 Облигация биржевая, 4B02-538-01481-B-001P, RU000A104CY2 Облигация биржевая, 4B02-539-01481-B-001P, RU000A104CZ9 Облигация биржевая, 4B02-537-01481-B-001P, RU000A104CS4 Облигация биржевая, 4B02-536-01481-B-001P, RU000A104CR6 Облигация биржевая, 4B02-540-01481-B-001P, RU000A104ES0 Облигация биржевая, 4B02-541-01481-B-001P, RU000A104FL2 Облигация биржевая, 4B02-542-01481-B-001P, RU000A104FK4 Облигация биржевая, 4B02-544-01481-B-001P, RU000A104FH0 Облигация биржевая, 4B02-546-01481-B-001P, RU000A104FZ2 Облигация биржевая, 4B02-548-01481-B-001P, RU000A104H08 Облигация биржевая, 4B02-549-01481-B-001P, RU000A104JY7 Облигация биржевая, 4B02-550-01481-B-001P, RU000A104JX9 Облигация биржевая, 4B02-551-01481-B-001P, RU000A104KE7 Облигация биржевая, 4B02-552-01481-B-001P, RU000A104KK4 Облигация биржевая, 4B02-553-01481-B-001P, RU000A104KL2 Облигация биржевая, 4B02-554-01481-B-001P, RU000A104KX7 Облигация биржевая, 4B02-555-01481-B-001P, RU000A104KY5 Облигация биржевая, 4B02-556-01481-B-001P, RU000A104KZ2 Облигация биржевая, 4B02-558-01481-B-001P Облигация биржевая, 4B02-557-01481-B-001P, RU000A104L02 Облигация биржевая, 4B02-559-01481-B-001P, RU000A105179 Облигация биржевая, 4B02-560-01481-B-001P, RU000A105161 Облигация биржевая, 4B02-561-01481-B-001P, RU000A105401 Облигация биржевая, 4B02-562-01481-B-001P, RU000A1054X9 Облигация биржевая, 4B02-563-01481-B-001P, RU000A105666 Облигация биржевая, 4B02-564-01481-B-001P Облигация биржевая, 4B02-565-01481-B-001P, RU000A1057K9 Облигация биржевая, 4B02-566-01481-B-001P Облигация биржевая, 4B02-568-01481-B-001P, RU000A1059D0 Облигация биржевая, 4B02-570-01481-B-001P, RU000A105BK0 Облигация биржевая, 4B02-572-01481-B-001P, RU000A105GQ6 Облигация биржевая, 4B02-575-01481-B-001P, RU000A105MD2 Облигация биржевая, 4B02-577-01481-B-001P, RU000A105PA1 Облигация биржевая, 4B02-579-01481-B-001P, RU000A105R96 Облигация биржевая, 4B02-581-01481-B-001P, RU000A105S87 Облигация биржевая, 4B02-582-01481-B-001P, RU000A105SD9 Облигация биржевая, 4B02-583-01481-B-001P Облигация биржевая, 4B02-586-01481-B-001P, RU000A105W57 Облигация биржевая, 4B02-587-01481-B-001P, RU000A105WX9 Облигация биржевая, 4B02-589-01481-B-001P, RU000A105ZR4 Облигация биржевая, 4B02-590-01481-B-001P, RU000A1061E4 Облигация биржевая, 4B02-593-01481-B-001P, RU000A1065F2 Облигация биржевая, 4B02-594-01481-B-001P, RU000A1067A9 Облигация биржевая, 4B02-02-01481-B-002P, RU000A1069P3 Облигация биржевая, 4B02-596-01481-B-001P, RU000A106AB9 Облигация биржевая, 4B02-598-01481-B-001P, RU000A106AQ7 Облигация биржевая, 4B02-597-01481-B-001P, RU000A106AP9 Облигация биржевая, 4B02-600-01481-B-001P, RU000A106D83 Облигация биржевая, 4B02-602-01481-B-001P, RU000A106EU1 Облигация биржевая, 4B02-603-01481-B-001P, RU000A106EX5 Облигация биржевая, 4B02-604-01481-B-001P, RU000A106G64 Облигация биржевая, 4B02-606-01481-B-001P Облигация биржевая, 4B02-607-01481-B-001P, RU000A106L18 Облигация биржевая, 4B02-609-01481-B-001P, RU000A106M09 Облигация биржевая, 4B02-608-01481-B-001P, RU000A106LZ5 Облигация биржевая, 4B02-610-01481-B-001P, RU000A106QL4 Облигация биржевая, 4B02-611-01481-B-001P, RU000A106RY5 Облигация биржевая, 4B02-612-01481-B-001P, RU000A106SD7 Облигация биржевая, 4B02-613-01481-B-001P, RU000A106TT1 Облигация биржевая, 4B02-614-01481-B-001P, RU000A106TU9 Облигация биржевая, 4B02-615-01481-B-001P, RU000A106V99 Облигация биржевая, 4B02-616-01481-B-001P, RU000A106XQ9 Облигация биржевая, 4B02-619-01481-B-001P, RU000A106YU9 Облигация биржевая, 4B02-617-01481-B-001P, RU000A106XR7 Облигация биржевая, 4B02-618-01481-B-001P, RU000A106Y96 Облигация биржевая, 4B02-620-01481-B-001P, RU000A107464 Облигация биржевая, 4B02-621-01481-B-001P, RU000A1074S7 Облигация биржевая, 4B02-622-01481-B-001P, RU000A107514 Облигация биржевая, 4B02-623-01481-B-001P, RU000A107704 Облигация биржевая, 4B02-624-01481-B-001P, RU000A107845 Облигация биржевая, 4B02-625-01481-B-001P, RU000A107985 Облигация биржевая, 4B02-626-01481-B-001P, RU000A1079B2 Облигация биржевая, 4B02-03-01481-B-002P Облигация биржевая, 4B02-04-01481-B-002P Облигация биржевая, 4B02-628-01481-B-001P, RU000A107DB1 Облигация биржевая, 4B02-629-01481-B-001P, RU000A107DC9 Облигация биржевая, 4B02-630-01481-B-001P, RU000A107J45 Облигация биржевая, 4B02-631-01481-B-001P, RU000A107P88 Облигация биржевая, 4B02-632-01481-B-001P, RU000A107Q04 Облигация биржевая, 4B02-633-01481-B-001P, RU000A107RW7 Облигация биржевая, 4B02-636-01481-B-001P, RU000A107S77 Облигация биржевая, 4B02-635-01481-B-001P, RU000A107S69 Облигация биржевая, 4B02-634-01481-B-001P, RU000A107S51 Облигация биржевая, 4B02-637-01481-B-001P, RU000A107SR5 Облигация биржевая, 4B02-638-01481-B-001P, RU000A107UR1 Облигация биржевая, 4B02-639-01481-B-001P, RU000A107W97 Облигация биржевая, 4B02-640-01481-B-001P, RU000A107Y46 Облигация биржевая, 4B02-641-01481-B-001P, RU000A1080R6 Облигация биржевая, 4B02-642-01481-B-001P, RU000A1080T2 Облигация биржевая, 4B02-643-01481-B-001P, RU000A1080W6 Облигация биржевая, 4B02-644-01481-B-001P, RU000A108413 Облигация биржевая, 4B02-645-01481-B-001P, RU000A108421 Облигация биржевая, 4B02-646-01481-B-001P, RU000A1088K4 Облигация биржевая, 4B02-647-01481-B-001P, RU000A1088L2 Облигация биржевая, 4B02-648-01481-B-001P, RU000A108C09 Облигация биржевая, 4B02-649-01481-B-001P</t>
+    <t>Акция привилегированная, 20301481B, RU0009029557 Облигация биржевая, 4B024601481B001P Облигация биржевая, 4B028801481B001P, RU000A100DS0 Облигация биржевая, 4B029101481B001P, RU000A100EC2 Облигация биржевая, 4B0210901481B001P, RU000A100KZ0 Облигация биржевая, 4B0211601481B001P, RU000A100MZ6 Облигация биржевая, 4B0212301481B001P, RU000A100PX4 Облигация биржевая, 4B0213901481B001P, RU000A100TP2 Облигация биржевая, 4B0215201481B001P, RU000A100VV6 Облигация биржевая, 4B0215701481B001P, RU000A100X36 Облигация биржевая, 4B0215801481B001P, RU000A100YB2 Облигация биржевая, 4B0216301481B001P, RU000A100Z75 Облигация биржевая, 4B0216701481B001P, RU000A101103 Облигация биржевая, 4B0217101481B001P, RU000A1011K6 Облигация биржевая, 4B0216901481B001P, RU000A1011F6 Облигация биржевая, 4B0217001481B001P, RU000A1011H2 Облигация биржевая, 4B0217901481B001P, RU000A101400 Облигация биржевая, 4B0218301481B001P, RU000A1015U6 Облигация биржевая, 4B0218601481B001P, RU000A101640 Облигация биржевая, 4B0218501481B001P, RU000A101657 Облигация биржевая, 4B0218901481B001P, RU000A1017R8 Облигация биржевая, 4B0219001481B001P, RU000A1017Q0 Облигация биржевая, 4B0219501481B001P, RU000A1019T0 Облигация биржевая, 4B0221001481B001P, RU000A101DR0 Облигация биржевая, 4B0221701481B001P, RU000A101C14 Облигация биржевая, 4B0221101481B001P, RU000A101FQ7 Облигация биржевая, 4B0221201481B001P, RU000A101CY8 Облигация биржевая, 4B0221301481B001P, RU000A101EL1 Облигация биржевая, 4B0221401481B001P, RU000A101EB2 Облигация биржевая, 4B0220801481B001P, RU000A101D62 Облигация биржевая, 4B0221501481B001P, RU000A101ED8 Облигация биржевая, 4B0221601481B001P, RU000A101C48 Облигация биржевая, 4B02-220-01481-B-001P, RU000A101FD5 Облигация биржевая, 4B02-224-01481-B-001P, RU000A101GP7 Облигация биржевая, 4B02-226-01481-B-001P, RU000A101GF8 Облигация биржевая, 4B02-231-01481-B-001P, RU000A101HG4 Облигация биржевая, 4B02-230-01481-B-001P, RU000A101HH2 Облигация биржевая, 4B02-232-01481-B-001P, RU000A101HF6 Облигация биржевая, 4B02-234-01481-B-001P, RU000A101JW7 Облигация биржевая, 4B02-229-01481-B-001P, RU000A101GT9 Облигация биржевая, 4B02-233-01481-B-001P, RU000A101HK6 Облигация биржевая, 4B02-236-01481-B-001P, RU000A101J58 Облигация биржевая, 4B02-237-01481-B-001P, RU000A101J41 Облигация биржевая, 4B02-243-01481-B-001P, RU000A101KF0 Облигация биржевая, 4B02-241-01481-B-001P, RU000A101KH6 Облигация биржевая, 4B02-250-01481-B-001P, RU000A101LT9 Облигация биржевая, 4B02-251-01481-B-001P, RU000A101LU7 Облигация биржевая, 4B02-247-01481-B-001P, RU000A101L21 Облигация биржевая, 4B02-249-01481-B-001P, RU000A101LB7 Облигация биржевая, 4B02-252-01481-B-001P, RU000A101LF8 Облигация биржевая, 4B02-258-01481-B-001P, RU000A101SS6 Облигация биржевая, 4B02-254-01481-B-001P, RU000A101MK6 Облигация биржевая, 4B02-253-01481-B-001P, RU000A101MH2 Облигация биржевая, 4B02-262-01481-B-001P, RU000A101QJ9 Облигация биржевая, 4B02-256-01481-B-001P Облигация биржевая, 4B02-261-01481-B-001P Облигация биржевая, 4B02-260-01481-B-001P Облигация биржевая, 4B02-259-01481-B-001P Облигация биржевая, 4B02-265-01481-B-001P, RU000A101QV4 Облигация биржевая, 4B02-266-01481-B-001P, RU000A101QY8 Облигация биржевая, 4B02-269-01481-B-001P, RU000A101QT8 Облигация биржевая, 4B02-264-01481-B-001P, RU000A101QW2 Облигация биржевая, 4B02-270-01481-B-001P, RU000A101QX0 Облигация биржевая, 4B02-272-01481-B-001P, RU000A101S32 Облигация биржевая, 4B02-274-01481-B-001P, RU000A101SW8 Облигация биржевая, 4B02-277-01481-B-001P, RU000A101T23 Облигация биржевая, 4B02-276-01481-B-001P, RU000A101T31 Облигация биржевая, 4B02-279-01481-B-001P, RU000A101TZ9 Облигация биржевая, 4B02-282-01481-B-001P, RU000A101V11 Облигация биржевая, 4B02-281-01481-B-001P, RU000A101UZ7 Облигация биржевая, 4B02-283-01481-B-001P, RU000A101V03 Облигация биржевая, 4B02-284-01481-B-001P, RU000A101VL5 Облигация биржевая, 4B02-285-01481-B-001P, RU000A101VK7 Облигация биржевая, 4B02-286-01481-B-001P, RU000A101VS0 Облигация биржевая, 4B02-289-01481-B-001P, RU000A101W28 Облигация биржевая, 4B02-291-01481-B-001P, RU000A101WT6 Облигация биржевая, 4B02-290-01481-B-001P, RU000A101W36 Облигация биржевая, 4B02-292-01481-B-001P, RU000A101WG3 Облигация биржевая, 4B02-293-01481-B-001P, RU000A101WV2 Облигация биржевая, 4B02-294-01481-B-001P, RU000A101WU4 Облигация биржевая, 4B02-295-01481-B-001P, RU000A101Y83 Облигация биржевая, 4B02-296-01481-B-001P, RU000A101Y75 Облигация биржевая, 4B02-298-01481-B-001P, RU000A101ZQ5 Облигация биржевая, 4B02-297-01481-B-001P, RU000A101YG9 Облигация биржевая, 4B02-299-01481-B-001P, RU000A101ZL6 Облигация биржевая, 4B02-301-01481-B-001P, RU000A101ZV5 Облигация биржевая, 4B02-304-01481-B-001P, RU000A101ZR3 Облигация биржевая, 4B02-303-01481-B-001P, RU000A101ZS1 Облигация биржевая, 4B02-307-01481-B-001P, RU000A1020G5 Облигация биржевая, 4B02-306-01481-B-001P, RU000A1020F7 Облигация биржевая, 4B02-309-01481-B-001P, RU000A102176 Облигация биржевая, 4B02-308-01481-B-001P, RU000A102168 Облигация биржевая, 4B02-310-01481-B-001P, RU000A1021M1 Облигация биржевая, 4B02-311-01481-B-001P, RU000A1021N9 Облигация биржевая, 4B02-312-01481-B-001P, RU000A1021P4 Облигация биржевая, 4B02-313-01481-B-001P, RU000A1021Q2 Облигация биржевая, 4B02-314-01481-B-001P, RU000A102242 Облигация биржевая, 4B02-315-01481-B-001P, RU000A102259 Облигация биржевая, 4B02-318-01481-B-001P, RU000A102283 Облигация биржевая, 4B02-316-01481-B-001P, RU000A102267 Облигация биржевая, 4B02-321-01481-B-001P, RU000A1022R8 Облигация биржевая, 4B02-319-01481-B-001P, RU000A1022N7 Облигация биржевая, 4B02-323-01481-B-001P, RU000A102358 Облигация биржевая, 4B02-324-01481-B-001P, RU000A102341 Облигация биржевая, 4B02-326-01481-B-001P, RU000A102416 Облигация биржевая, 4B02-328-01481-B-001P, RU000A1023Y2 Облигация биржевая, 4B02-327-01481-B-001P, RU000A1023X4 Облигация биржевая, 4B02-325-01481-B-001P, RU000A1023Z9 Облигация биржевая, 4B02-330-01481-B-001P, RU000A1024M5 Облигация биржевая, 4B02-329-01481-B-001P, RU000A1024N3 Облигация биржевая, 4B02-331-01481-B-001P, RU000A1024T0 Облигация биржевая, 4B02-332-01481-B-001P, RU000A1025J8 Облигация биржевая, 4B02-333-01481-B-001P, RU000A1025L4 Облигация биржевая, 4B02-334-01481-B-001P, RU000A1025K6 Облигация биржевая, 4B02-337-01481-B-001P, RU000A1025S9 Облигация биржевая, 4B02-336-01481-B-001P, RU000A1025R1 Облигация биржевая, 4B02-340-01481-B-001P, RU000A102622 Облигация биржевая, 4B02-339-01481-B-001P, RU000A102614 Облигация биржевая, 4B02-341-01481-B-001P, RU000A1026E7 Облигация биржевая, 4B02-344-01481-B-001P, RU000A1026M0 Облигация биржевая, 4B02-342-01481-B-001P, RU000A1026N8 Облигация биржевая, 4B02-343-01481-B-001P, RU000A1026P3 Облигация биржевая, 4B02-346-01481-B-001P, RU000A1027A3 Облигация биржевая, 4B02-347-01481-B-001P, RU000A1027B1 Облигация биржевая, 4B02-354-01481-B-001P, RU000A1029C5 Облигация биржевая, 4B02-355-01481-B-001P, RU000A1029E1 Облигация биржевая, 4B02-352-01481-B-001P, RU000A1028J2 Облигация биржевая, 4B02-353-01481-B-001P, RU000A1028K0 Облигация биржевая, 4B02-357-01481-B-001P, RU000A102A56 Облигация биржевая, 4B02-356-01481-B-001P, RU000A102A64 Облигация биржевая, 4B02-358-01481-B-001P, RU000A1029R3 Облигация биржевая, 4B02-359-01481-B-001P, RU000A1029Q5 Облигация биржевая, 4B02-360-01481-B-001P, RU000A1029S1 Облигация биржевая, 4B02-361-01481-B-001P, RU000A1029W3 Облигация биржевая, 4B02-363-01481-B-001P, RU000A102A72 Облигация биржевая, 4B02-364-01481-B-001P, RU000A102A80 Облигация биржевая, 4B02-371-01481-B-001P, RU000A102FQ5 Облигация биржевая, 4B02-367-01481-B-001P, RU000A102BE0 Облигация биржевая, 4B02-372-01481-B-001P, RU000A102BZ5 Облигация биржевая, 4B02-373-01481-B-001P, RU000A102C13 Облигация биржевая, 4B02-374-01481-B-001P, RU000A102BR2 Облигация биржевая, 4B02-375-01481-B-001P, RU000A102BS0 Облигация биржевая, 4B02-376-01481-B-001P, RU000A102C88 Облигация биржевая, 4B02-378-01481-B-001P, RU000A102CA6 Облигация биржевая, 4B02-377-01481-B-001P, RU000A102C96 Облигация биржевая, 4B02-379-01481-B-001P, RU000A102D38 Облигация биржевая, 4B02-380-01481-B-001P, RU000A102D87 Облигация биржевая, 4B02-382-01481-B-001P, RU000A102D61 Облигация биржевая, 4B02-381-01481-B-001P, RU000A102D53 Облигация биржевая, 4B02-387-01481-B-001P Облигация биржевая, 4B02-383-01481-B-001P, RU000A102DG1 Облигация биржевая, 4B02-384-01481-B-001P, RU000A102DF3 Облигация биржевая, 4B02-385-01481-B-001P, RU000A102DV0 Облигация биржевая, 4B02-389-01481-B-001P, RU000A102FL6 Облигация биржевая, 4B02-393-01481-B-001P, RU000A102GL4 Облигация биржевая, 4B02-392-01481-B-001P, RU000A102GH2 Облигация биржевая, 4B02-391-01481-B-001P, RU000A102GG4 Облигация биржевая, 4B02-390-01481-B-001P, RU000A102G76 Облигация биржевая, 4B02-394-01481-B-001P, RU000A102GM2 Облигация биржевая, 4B02-395-01481-B-001P, RU000A102GN0 Облигация биржевая, 4B02-396-01481-B-001P, RU000A102GP5 Облигация биржевая, 4B02-397-01481-B-001P, RU000A102GQ3 Облигация биржевая, 4B02-398-01481-B-001P, RU000A102GR1 Облигация биржевая, 4B02-399-01481-B-001P, RU000A102GZ4 Облигация биржевая, 4B02-401-01481-B-001P, RU000A102HK4 Облигация биржевая, 4B02-400-01481-B-001P, RU000A102HH0 Облигация биржевая, 4B02-405-01481-B-001P, RU000A102JW5 Облигация биржевая, 4B02-407-01481-B-001P, RU000A103968 Облигация биржевая, 4B02-408-01481-B-001P, RU000A103JQ5 Облигация биржевая, 4B02-409-01481-B-001P Облигация биржевая, 4B02-410-01481-B-001P, RU000A102WA4 Облигация биржевая, 4B02-411-01481-B-001P, RU000A103281 Облигация биржевая, 4B02-412-01481-B-001P Облигация биржевая, 4B02-413-01481-B-001P Облигация биржевая, 4B02-414-01481-B-001P, RU000A104Y31 Облигация биржевая, 4B02-415-01481-B-001P, RU000A103TL5 Облигация биржевая, 4B02-416-01481-B-001P, RU000A102V69 Облигация биржевая, 4B02-417-01481-B-001P Облигация биржевая, 4B02-418-01481-B-001P, RU000A1031G2 Облигация биржевая, 4B02-419-01481-B-001P, RU000A102UC4 Облигация биржевая, 4B02-420-01481-B-001P, RU000A102RA4 Облигация корпоративная, 4-02-01481-B-002P, RU000A102HC1 Облигация биржевая, 4B02-421-01481-B-001P Облигация биржевая, 4B02-422-01481-B-001P, RU000A103976 Облигация биржевая, 4B02-424-01481-B-001P, RU000A103TN1 Облигация биржевая, 4B02-426-01481-B-001P, RU000A102SU0 Облигация биржевая, 4B02-423-01481-B-001P, RU000A102RC0 Облигация биржевая, 4B02-425-01481-B-001P, RU000A102RD8 Облигация биржевая, 4B02-427-01481-B-001P, RU000A102RE6 Облигация биржевая, 4B02-430-01481-B-001P, RU000A102RR8 Облигация биржевая, 4B02-433-01481-B-001P, RU000A102TD4 Облигация биржевая, 4B02-434-01481-B-001P, RU000A102TH5 Облигация биржевая, 4B02-435-01481-B-001P, RU000A102VD0 Облигация биржевая, 4B02-438-01481-B-001P, RU000A102W50 Облигация биржевая, 4B02-436-01481-B-001P, RU000A102W35 Облигация биржевая, 4B02-439-01481-B-001P, RU000A102WB2 Облигация биржевая, 4B02-440-01481-B-001P, RU000A102WC0 Облигация биржевая, 4B02-441-01481-B-001P, RU000A102X26 Облигация биржевая, 4B02-443-01481-B-001P, RU000A102YH5 Облигация биржевая, 4B02-442-01481-B-001P, RU000A102YG7 Облигация биржевая, 4B02-444-01481-B-001P, RU000A102ZZ4 Облигация биржевая, 4B02-445-01481-B-001P, RU000A103299 Облигация биржевая, 4B02-446-01481-B-001P, RU000A1031H0 Облигация биржевая, 4B02-448-01481-B-001P, RU000A103216 Облигация биржевая, 4B02-449-01481-B-001P, RU000A103273 Облигация биржевая, 4B02-450-01481-B-001P, RU000A1032C9 Облигация биржевая, 4B02-451-01481-B-001P, RU000A1032N6 Облигация биржевая, 4B02-452-01481-B-001P, RU000A1032K2 Облигация биржевая, 4B02-453-01481-B-001P, RU000A1032L0 Облигация биржевая, 4B02-454-01481-B-001P, RU000A103471 Облигация биржевая, 4B02-455-01481-B-001P, RU000A103539 Облигация биржевая, 4B02-457-01481-B-001P, RU000A103588 Облигация биржевая, 4B02-458-01481-B-001P, RU000A103596 Облигация биржевая, 4B02-459-01481-B-001P, RU000A103661 Облигация биржевая, 4B02-460-01481-B-001P, RU000A1038U8 Облигация биржевая, 4B02-461-01481-B-001P, RU000A103AF7 Облигация биржевая, 4B02-464-01481-B-001P, RU000A103AM3 Облигация биржевая, 4B02-465-01481-B-001P, RU000A103AP6 Облигация биржевая, 4B02-463-01481-B-001P, RU000A103AL5 Облигация биржевая, 4B02-466-01481-B-001P, RU000A103C79 Облигация биржевая, 4B02-467-01481-B-001P, RU000A103C87 Облигация биржевая, 4B02-468-01481-B-001P, RU000A103CP2 Облигация биржевая, 4B02-469-01481-B-001P, RU000A103CR8 Облигация биржевая, 4B02-474-01481-B-001P, RU000A103G42 Облигация биржевая, 4B02-475-01481-B-001P, RU000A103G59 Облигация биржевая, 4B02-476-01481-B-001P Облигация биржевая, 4B02-470-01481-B-001P, RU000A103F92 Облигация биржевая, 4B02-471-01481-B-001P, RU000A103FA7 Облигация биржевая, 4B02-472-01481-B-001P, RU000A103FB5 Облигация биржевая, 4B02-473-01481-B-001P, RU000A103FM2 Облигация биржевая, 4B02-478-01481-B-001P, RU000A103H66 Облигация биржевая, 4B02-479-01481-B-001P, RU000A103HE5 Облигация биржевая, 4B02-480-01481-B-001P, RU000A103JB7 Облигация биржевая, 4B02-481-01481-B-001P, RU000A103KG4 Облигация биржевая, 4B02-483-01481-B-001P, RU000A103LE7 Облигация биржевая, 4B02-482-01481-B-001P, RU000A103LD9 Облигация биржевая, 4B02-485-01481-B-001P, RU000A103LG2 Облигация биржевая, 4B02-484-01481-B-001P, RU000A103LF4 Облигация биржевая, 4B02-486-01481-B-001P, RU000A103MW7 Облигация биржевая, 4B02-487-01481-B-001P, RU000A103P25 Облигация биржевая, 4B02-488-01481-B-001P, RU000A103PF5 Облигация биржевая, 4B02-489-01481-B-001P, RU000A103PH1 Облигация корпоративная, 4-03-01481-B-002P, RU000A103Q24 Облигация корпоративная, 4-04-01481-B-002P, RU000A103QW8 Облигация биржевая, 4B02-490-01481-B-001P, RU000A103RU0 Облигация биржевая, 4B02-491-01481-B-001P, RU000A103RV8 Облигация биржевая, 4B02-492-01481-B-001P, RU000A103RW6 Облигация корпоративная, 4-05-01481-B-002P, RU000A103QX6 Облигация биржевая, 4B02-493-01481-B-001P, RU000A103RX4 Облигация биржевая, 4B02-497-01481-B-001P, RU000A103V84 Облигация биржевая, 4B02-494-01481-B-001P, RU000A103UP4 Облигация биржевая, 4B02-495-01481-B-001P, RU000A103UQ2 Облигация биржевая, 4B02-496-01481-B-001P, RU000A103UR0 Облигация биржевая, 4B02-498-01481-B-001P, RU000A103VP2 Облигация биржевая, 4B02-499-01481-B-001P, RU000A103VQ0 Облигация биржевая, 4B02-500-01481-B-001P, RU000A103WV8 Облигация биржевая, 4B02-501-01481-B-001P, RU000A103X90 Облигация биржевая, 4B02-506-01481-B-001P, RU000A103Y57 Облигация биржевая, 4B02-505-01481-B-001P, RU000A103Y40 Облигация биржевая, 4B02-502-01481-B-001P Облигация биржевая, 4B02-503-01481-B-001P, RU000A103Y16 Облигация биржевая, 4B02-504-01481-B-001P, RU000A103Y32 Облигация биржевая, 4B02-507-01481-B-001P, RU000A103YV4 Облигация биржевая, 4B02-508-01481-B-001P Облигация биржевая, 4B02-509-01481-B-001P, RU000A103ZJ6 Облигация биржевая, 4B02-510-01481-B-001P, RU000A103ZH0 Облигация биржевая, 4B02-511-01481-B-001P, RU000A1040J7 Облигация биржевая, 4B02-512-01481-B-001P, RU000A1040T6 Облигация биржевая, 4B02-513-01481-B-001P, RU000A1040U4 Облигация биржевая, 4B02-514-01481-B-001P, RU000A1040Y6 Облигация биржевая, 4B02-515-01481-B-001P, RU000A1041N7 Облигация биржевая, 4B02-516-01481-B-001P, RU000A1041M9 Облигация биржевая, 4B02-517-01481-B-001P, RU000A1043H5 Облигация биржевая, 4B02-518-01481-B-001P, RU000A1044Z5 Облигация биржевая, 4B02-519-01481-B-001P, RU000A1044Y8 Облигация биржевая, 4B02-520-01481-B-001P, RU000A1044X0 Облигация биржевая, 4B02-521-01481-B-001P, RU000A1044W2 Облигация биржевая, 4B02-522-01481-B-001P, RU000A1044V4 Облигация биржевая, 4B02-523-01481-B-001P, RU000A1045F4 Облигация биржевая, 4B02-525-01481-B-001P Облигация биржевая, 4B02-524-01481-B-001P, RU000A104644 Облигация биржевая, 4B02-526-01481-B-001P, RU000A1047L8 Облигация биржевая, 4B02-527-01481-B-001P, RU000A1047M6 Облигация биржевая, 4B02-528-01481-B-001P, RU000A1047N4 Облигация биржевая, 4B02-529-01481-B-001P, RU000A1047P9 Облигация биржевая, 4B02-530-01481-B-001P, RU000A1049R1 Облигация биржевая, 4B02-531-01481-B-001P, RU000A104A96 Облигация биржевая, 4B02-535-01481-B-001P, RU000A104AH1 Облигация биржевая, 4B02-534-01481-B-001P, RU000A104AG3 Облигация биржевая, 4B02-533-01481-B-001P, RU000A104AF5 Облигация биржевая, 4B02-532-01481-B-001P, RU000A104AE8 Облигация биржевая, 4B02-538-01481-B-001P, RU000A104CY2 Облигация биржевая, 4B02-539-01481-B-001P, RU000A104CZ9 Облигация биржевая, 4B02-537-01481-B-001P, RU000A104CS4 Облигация биржевая, 4B02-536-01481-B-001P, RU000A104CR6 Облигация биржевая, 4B02-540-01481-B-001P, RU000A104ES0 Облигация биржевая, 4B02-541-01481-B-001P, RU000A104FL2 Облигация биржевая, 4B02-542-01481-B-001P, RU000A104FK4 Облигация биржевая, 4B02-544-01481-B-001P, RU000A104FH0 Облигация биржевая, 4B02-546-01481-B-001P, RU000A104FZ2 Облигация биржевая, 4B02-548-01481-B-001P, RU000A104H08 Облигация биржевая, 4B02-549-01481-B-001P, RU000A104JY7 Облигация биржевая, 4B02-550-01481-B-001P, RU000A104JX9 Облигация биржевая, 4B02-551-01481-B-001P, RU000A104KE7 Облигация биржевая, 4B02-552-01481-B-001P, RU000A104KK4 Облигация биржевая, 4B02-553-01481-B-001P, RU000A104KL2 Облигация биржевая, 4B02-554-01481-B-001P, RU000A104KX7 Облигация биржевая, 4B02-555-01481-B-001P, RU000A104KY5 Облигация биржевая, 4B02-556-01481-B-001P, RU000A104KZ2 Облигация биржевая, 4B02-558-01481-B-001P Облигация биржевая, 4B02-557-01481-B-001P, RU000A104L02 Облигация биржевая, 4B02-559-01481-B-001P, RU000A105179 Облигация биржевая, 4B02-560-01481-B-001P, RU000A105161 Облигация биржевая, 4B02-561-01481-B-001P, RU000A105401 Облигация биржевая, 4B02-562-01481-B-001P, RU000A1054X9 Облигация биржевая, 4B02-563-01481-B-001P, RU000A105666 Облигация биржевая, 4B02-564-01481-B-001P Облигация биржевая, 4B02-565-01481-B-001P, RU000A1057K9 Облигация биржевая, 4B02-566-01481-B-001P Облигация биржевая, 4B02-568-01481-B-001P, RU000A1059D0 Облигация биржевая, 4B02-570-01481-B-001P, RU000A105BK0 Облигация биржевая, 4B02-572-01481-B-001P, RU000A105GQ6 Облигация биржевая, 4B02-575-01481-B-001P, RU000A105MD2 Облигация биржевая, 4B02-577-01481-B-001P, RU000A105PA1 Облигация биржевая, 4B02-579-01481-B-001P, RU000A105R96 Облигация биржевая, 4B02-581-01481-B-001P, RU000A105S87 Облигация биржевая, 4B02-582-01481-B-001P, RU000A105SD9 Облигация биржевая, 4B02-583-01481-B-001P Облигация биржевая, 4B02-586-01481-B-001P, RU000A105W57 Облигация биржевая, 4B02-587-01481-B-001P, RU000A105WX9 Облигация биржевая, 4B02-589-01481-B-001P, RU000A105ZR4 Облигация биржевая, 4B02-590-01481-B-001P, RU000A1061E4 Облигация биржевая, 4B02-593-01481-B-001P, RU000A1065F2 Облигация биржевая, 4B02-594-01481-B-001P, RU000A1067A9 Облигация биржевая, 4B02-02-01481-B-002P, RU000A1069P3 Облигация биржевая, 4B02-596-01481-B-001P, RU000A106AB9 Облигация биржевая, 4B02-598-01481-B-001P, RU000A106AQ7 Облигация биржевая, 4B02-597-01481-B-001P, RU000A106AP9 Облигация биржевая, 4B02-600-01481-B-001P, RU000A106D83 Облигация биржевая, 4B02-603-01481-B-001P, RU000A106EX5 Облигация биржевая, 4B02-604-01481-B-001P, RU000A106G64 Облигация биржевая, 4B02-606-01481-B-001P Облигация биржевая, 4B02-607-01481-B-001P, RU000A106L18 Облигация биржевая, 4B02-609-01481-B-001P, RU000A106M09 Облигация биржевая, 4B02-608-01481-B-001P, RU000A106LZ5 Облигация биржевая, 4B02-610-01481-B-001P, RU000A106QL4 Облигация биржевая, 4B02-611-01481-B-001P, RU000A106RY5 Облигация биржевая, 4B02-612-01481-B-001P, RU000A106SD7 Облигация биржевая, 4B02-613-01481-B-001P, RU000A106TT1 Облигация биржевая, 4B02-614-01481-B-001P, RU000A106TU9 Облигация биржевая, 4B02-615-01481-B-001P, RU000A106V99 Облигация биржевая, 4B02-616-01481-B-001P, RU000A106XQ9 Облигация биржевая, 4B02-619-01481-B-001P, RU000A106YU9 Облигация биржевая, 4B02-617-01481-B-001P, RU000A106XR7 Облигация биржевая, 4B02-618-01481-B-001P, RU000A106Y96 Облигация биржевая, 4B02-620-01481-B-001P, RU000A107464 Облигация биржевая, 4B02-621-01481-B-001P, RU000A1074S7 Облигация биржевая, 4B02-622-01481-B-001P, RU000A107514 Облигация биржевая, 4B02-623-01481-B-001P, RU000A107704 Облигация биржевая, 4B02-624-01481-B-001P, RU000A107845 Облигация биржевая, 4B02-625-01481-B-001P, RU000A107985 Облигация биржевая, 4B02-626-01481-B-001P, RU000A1079B2 Облигация биржевая, 4B02-03-01481-B-002P Облигация биржевая, 4B02-04-01481-B-002P Облигация биржевая, 4B02-628-01481-B-001P, RU000A107DB1 Облигация биржевая, 4B02-629-01481-B-001P, RU000A107DC9 Облигация биржевая, 4B02-630-01481-B-001P, RU000A107J45 Облигация биржевая, 4B02-631-01481-B-001P, RU000A107P88 Облигация биржевая, 4B02-632-01481-B-001P, RU000A107Q04 Облигация биржевая, 4B02-633-01481-B-001P, RU000A107RW7 Облигация биржевая, 4B02-636-01481-B-001P, RU000A107S77 Облигация биржевая, 4B02-635-01481-B-001P, RU000A107S69 Облигация биржевая, 4B02-634-01481-B-001P, RU000A107S51 Облигация биржевая, 4B02-637-01481-B-001P, RU000A107SR5 Облигация биржевая, 4B02-638-01481-B-001P, RU000A107UR1 Облигация биржевая, 4B02-639-01481-B-001P, RU000A107W97 Облигация биржевая, 4B02-640-01481-B-001P, RU000A107Y46 Облигация биржевая, 4B02-641-01481-B-001P, RU000A1080R6 Облигация биржевая, 4B02-642-01481-B-001P, RU000A1080T2 Облигация биржевая, 4B02-643-01481-B-001P, RU000A1080W6 Облигация биржевая, 4B02-644-01481-B-001P, RU000A108413 Облигация биржевая, 4B02-645-01481-B-001P, RU000A108421 Облигация биржевая, 4B02-646-01481-B-001P, RU000A1088K4 Облигация биржевая, 4B02-647-01481-B-001P, RU000A1088L2 Облигация биржевая, 4B02-648-01481-B-001P, RU000A108C09 Облигация биржевая, 4B02-649-01481-B-001P, RU000A108DG8 Облигация биржевая, 4B02-650-01481-B-001P</t>
+  </si>
+  <si>
+    <t>Акция обыкновенная, 10301481B, RU0009029540 Облигация биржевая, 4B024601481B001P Облигация биржевая, 4B028801481B001P, RU000A100DS0 Облигация биржевая, 4B029101481B001P, RU000A100EC2 Облигация биржевая, 4B0210901481B001P, RU000A100KZ0 Облигация биржевая, 4B0211601481B001P, RU000A100MZ6 Облигация биржевая, 4B0212301481B001P, RU000A100PX4 Облигация биржевая, 4B0213901481B001P, RU000A100TP2 Облигация биржевая, 4B0215201481B001P, RU000A100VV6 Облигация биржевая, 4B0215701481B001P, RU000A100X36 Облигация биржевая, 4B0215801481B001P, RU000A100YB2 Облигация биржевая, 4B0216301481B001P, RU000A100Z75 Облигация биржевая, 4B0216701481B001P, RU000A101103 Облигация биржевая, 4B0217101481B001P, RU000A1011K6 Облигация биржевая, 4B0216901481B001P, RU000A1011F6 Облигация биржевая, 4B0217001481B001P, RU000A1011H2 Облигация биржевая, 4B0217901481B001P, RU000A101400 Облигация биржевая, 4B0218301481B001P, RU000A1015U6 Облигация биржевая, 4B0218601481B001P, RU000A101640 Облигация биржевая, 4B0218501481B001P, RU000A101657 Облигация биржевая, 4B0218901481B001P, RU000A1017R8 Облигация биржевая, 4B0219001481B001P, RU000A1017Q0 Облигация биржевая, 4B0219501481B001P, RU000A1019T0 Облигация биржевая, 4B0221001481B001P, RU000A101DR0 Облигация биржевая, 4B0221701481B001P, RU000A101C14 Облигация биржевая, 4B0221101481B001P, RU000A101FQ7 Облигация биржевая, 4B0221201481B001P, RU000A101CY8 Облигация биржевая, 4B0221301481B001P, RU000A101EL1 Облигация биржевая, 4B0221401481B001P, RU000A101EB2 Облигация биржевая, 4B0220801481B001P, RU000A101D62 Облигация биржевая, 4B0221501481B001P, RU000A101ED8 Облигация биржевая, 4B0221601481B001P, RU000A101C48 Облигация биржевая, 4B02-220-01481-B-001P, RU000A101FD5 Облигация биржевая, 4B02-224-01481-B-001P, RU000A101GP7 Облигация биржевая, 4B02-226-01481-B-001P, RU000A101GF8 Облигация биржевая, 4B02-231-01481-B-001P, RU000A101HG4 Облигация биржевая, 4B02-230-01481-B-001P, RU000A101HH2 Облигация биржевая, 4B02-232-01481-B-001P, RU000A101HF6 Облигация биржевая, 4B02-234-01481-B-001P, RU000A101JW7 Облигация биржевая, 4B02-229-01481-B-001P, RU000A101GT9 Облигация биржевая, 4B02-233-01481-B-001P, RU000A101HK6 Облигация биржевая, 4B02-236-01481-B-001P, RU000A101J58 Облигация биржевая, 4B02-237-01481-B-001P, RU000A101J41 Облигация биржевая, 4B02-243-01481-B-001P, RU000A101KF0 Облигация биржевая, 4B02-241-01481-B-001P, RU000A101KH6 Облигация биржевая, 4B02-250-01481-B-001P, RU000A101LT9 Облигация биржевая, 4B02-251-01481-B-001P, RU000A101LU7 Облигация биржевая, 4B02-247-01481-B-001P, RU000A101L21 Облигация биржевая, 4B02-249-01481-B-001P, RU000A101LB7 Облигация биржевая, 4B02-252-01481-B-001P, RU000A101LF8 Облигация биржевая, 4B02-258-01481-B-001P, RU000A101SS6 Облигация биржевая, 4B02-254-01481-B-001P, RU000A101MK6 Облигация биржевая, 4B02-253-01481-B-001P, RU000A101MH2 Облигация биржевая, 4B02-262-01481-B-001P, RU000A101QJ9 Облигация биржевая, 4B02-256-01481-B-001P Облигация биржевая, 4B02-261-01481-B-001P Облигация биржевая, 4B02-260-01481-B-001P Облигация биржевая, 4B02-259-01481-B-001P Облигация биржевая, 4B02-265-01481-B-001P, RU000A101QV4 Облигация биржевая, 4B02-266-01481-B-001P, RU000A101QY8 Облигация биржевая, 4B02-269-01481-B-001P, RU000A101QT8 Облигация биржевая, 4B02-264-01481-B-001P, RU000A101QW2 Облигация биржевая, 4B02-270-01481-B-001P, RU000A101QX0 Облигация биржевая, 4B02-272-01481-B-001P, RU000A101S32 Облигация биржевая, 4B02-274-01481-B-001P, RU000A101SW8 Облигация биржевая, 4B02-277-01481-B-001P, RU000A101T23 Облигация биржевая, 4B02-276-01481-B-001P, RU000A101T31 Облигация биржевая, 4B02-279-01481-B-001P, RU000A101TZ9 Облигация биржевая, 4B02-282-01481-B-001P, RU000A101V11 Облигация биржевая, 4B02-281-01481-B-001P, RU000A101UZ7 Облигация биржевая, 4B02-283-01481-B-001P, RU000A101V03 Облигация биржевая, 4B02-284-01481-B-001P, RU000A101VL5 Облигация биржевая, 4B02-285-01481-B-001P, RU000A101VK7 Облигация биржевая, 4B02-286-01481-B-001P, RU000A101VS0 Облигация биржевая, 4B02-289-01481-B-001P, RU000A101W28 Облигация биржевая, 4B02-291-01481-B-001P, RU000A101WT6 Облигация биржевая, 4B02-290-01481-B-001P, RU000A101W36 Облигация биржевая, 4B02-292-01481-B-001P, RU000A101WG3 Облигация биржевая, 4B02-293-01481-B-001P, RU000A101WV2 Облигация биржевая, 4B02-294-01481-B-001P, RU000A101WU4 Облигация биржевая, 4B02-295-01481-B-001P, RU000A101Y83 Облигация биржевая, 4B02-296-01481-B-001P, RU000A101Y75 Облигация биржевая, 4B02-298-01481-B-001P, RU000A101ZQ5 Облигация биржевая, 4B02-297-01481-B-001P, RU000A101YG9 Облигация биржевая, 4B02-299-01481-B-001P, RU000A101ZL6 Облигация биржевая, 4B02-301-01481-B-001P, RU000A101ZV5 Облигация биржевая, 4B02-304-01481-B-001P, RU000A101ZR3 Облигация биржевая, 4B02-303-01481-B-001P, RU000A101ZS1 Облигация биржевая, 4B02-307-01481-B-001P, RU000A1020G5 Облигация биржевая, 4B02-306-01481-B-001P, RU000A1020F7 Облигация биржевая, 4B02-309-01481-B-001P, RU000A102176 Облигация биржевая, 4B02-308-01481-B-001P, RU000A102168 Облигация биржевая, 4B02-310-01481-B-001P, RU000A1021M1 Облигация биржевая, 4B02-311-01481-B-001P, RU000A1021N9 Облигация биржевая, 4B02-312-01481-B-001P, RU000A1021P4 Облигация биржевая, 4B02-313-01481-B-001P, RU000A1021Q2 Облигация биржевая, 4B02-314-01481-B-001P, RU000A102242 Облигация биржевая, 4B02-315-01481-B-001P, RU000A102259 Облигация биржевая, 4B02-318-01481-B-001P, RU000A102283 Облигация биржевая, 4B02-316-01481-B-001P, RU000A102267 Облигация биржевая, 4B02-321-01481-B-001P, RU000A1022R8 Облигация биржевая, 4B02-319-01481-B-001P, RU000A1022N7 Облигация биржевая, 4B02-323-01481-B-001P, RU000A102358 Облигация биржевая, 4B02-324-01481-B-001P, RU000A102341 Облигация биржевая, 4B02-326-01481-B-001P, RU000A102416 Облигация биржевая, 4B02-328-01481-B-001P, RU000A1023Y2 Облигация биржевая, 4B02-327-01481-B-001P, RU000A1023X4 Облигация биржевая, 4B02-325-01481-B-001P, RU000A1023Z9 Облигация биржевая, 4B02-330-01481-B-001P, RU000A1024M5 Облигация биржевая, 4B02-329-01481-B-001P, RU000A1024N3 Облигация биржевая, 4B02-331-01481-B-001P, RU000A1024T0 Облигация биржевая, 4B02-332-01481-B-001P, RU000A1025J8 Облигация биржевая, 4B02-333-01481-B-001P, RU000A1025L4 Облигация биржевая, 4B02-334-01481-B-001P, RU000A1025K6 Облигация биржевая, 4B02-337-01481-B-001P, RU000A1025S9 Облигация биржевая, 4B02-336-01481-B-001P, RU000A1025R1 Облигация биржевая, 4B02-340-01481-B-001P, RU000A102622 Облигация биржевая, 4B02-339-01481-B-001P, RU000A102614 Облигация биржевая, 4B02-341-01481-B-001P, RU000A1026E7 Облигация биржевая, 4B02-344-01481-B-001P, RU000A1026M0 Облигация биржевая, 4B02-342-01481-B-001P, RU000A1026N8 Облигация биржевая, 4B02-343-01481-B-001P, RU000A1026P3 Облигация биржевая, 4B02-346-01481-B-001P, RU000A1027A3 Облигация биржевая, 4B02-347-01481-B-001P, RU000A1027B1 Облигация биржевая, 4B02-354-01481-B-001P, RU000A1029C5 Облигация биржевая, 4B02-355-01481-B-001P, RU000A1029E1 Облигация биржевая, 4B02-352-01481-B-001P, RU000A1028J2 Облигация биржевая, 4B02-353-01481-B-001P, RU000A1028K0 Облигация биржевая, 4B02-357-01481-B-001P, RU000A102A56 Облигация биржевая, 4B02-356-01481-B-001P, RU000A102A64 Облигация биржевая, 4B02-358-01481-B-001P, RU000A1029R3 Облигация биржевая, 4B02-359-01481-B-001P, RU000A1029Q5 Облигация биржевая, 4B02-360-01481-B-001P, RU000A1029S1 Облигация биржевая, 4B02-361-01481-B-001P, RU000A1029W3 Облигация биржевая, 4B02-363-01481-B-001P, RU000A102A72 Облигация биржевая, 4B02-364-01481-B-001P, RU000A102A80 Облигация биржевая, 4B02-371-01481-B-001P, RU000A102FQ5 Облигация биржевая, 4B02-367-01481-B-001P, RU000A102BE0 Облигация биржевая, 4B02-372-01481-B-001P, RU000A102BZ5 Облигация биржевая, 4B02-373-01481-B-001P, RU000A102C13 Облигация биржевая, 4B02-374-01481-B-001P, RU000A102BR2 Облигация биржевая, 4B02-375-01481-B-001P, RU000A102BS0 Облигация биржевая, 4B02-376-01481-B-001P, RU000A102C88 Облигация биржевая, 4B02-378-01481-B-001P, RU000A102CA6 Облигация биржевая, 4B02-377-01481-B-001P, RU000A102C96 Облигация биржевая, 4B02-379-01481-B-001P, RU000A102D38 Облигация биржевая, 4B02-380-01481-B-001P, RU000A102D87 Облигация биржевая, 4B02-382-01481-B-001P, RU000A102D61 Облигация биржевая, 4B02-381-01481-B-001P, RU000A102D53 Облигация биржевая, 4B02-387-01481-B-001P Облигация биржевая, 4B02-383-01481-B-001P, RU000A102DG1 Облигация биржевая, 4B02-384-01481-B-001P, RU000A102DF3 Облигация биржевая, 4B02-385-01481-B-001P, RU000A102DV0 Облигация биржевая, 4B02-389-01481-B-001P, RU000A102FL6 Облигация биржевая, 4B02-393-01481-B-001P, RU000A102GL4 Облигация биржевая, 4B02-392-01481-B-001P, RU000A102GH2 Облигация биржевая, 4B02-391-01481-B-001P, RU000A102GG4 Облигация биржевая, 4B02-390-01481-B-001P, RU000A102G76 Облигация биржевая, 4B02-394-01481-B-001P, RU000A102GM2 Облигация биржевая, 4B02-395-01481-B-001P, RU000A102GN0 Облигация биржевая, 4B02-396-01481-B-001P, RU000A102GP5 Облигация биржевая, 4B02-397-01481-B-001P, RU000A102GQ3 Облигация биржевая, 4B02-398-01481-B-001P, RU000A102GR1 Облигация биржевая, 4B02-399-01481-B-001P, RU000A102GZ4 Облигация биржевая, 4B02-401-01481-B-001P, RU000A102HK4 Облигация биржевая, 4B02-400-01481-B-001P, RU000A102HH0 Облигация биржевая, 4B02-405-01481-B-001P, RU000A102JW5 Облигация биржевая, 4B02-407-01481-B-001P, RU000A103968 Облигация биржевая, 4B02-408-01481-B-001P, RU000A103JQ5 Облигация биржевая, 4B02-409-01481-B-001P Облигация биржевая, 4B02-410-01481-B-001P, RU000A102WA4 Облигация биржевая, 4B02-411-01481-B-001P, RU000A103281 Облигация биржевая, 4B02-412-01481-B-001P Облигация биржевая, 4B02-413-01481-B-001P Облигация биржевая, 4B02-414-01481-B-001P, RU000A104Y31 Облигация биржевая, 4B02-415-01481-B-001P, RU000A103TL5 Облигация биржевая, 4B02-416-01481-B-001P, RU000A102V69 Облигация биржевая, 4B02-417-01481-B-001P Облигация биржевая, 4B02-418-01481-B-001P, RU000A1031G2 Облигация биржевая, 4B02-419-01481-B-001P, RU000A102UC4 Облигация биржевая, 4B02-420-01481-B-001P, RU000A102RA4 Облигация корпоративная, 4-02-01481-B-002P, RU000A102HC1 Облигация биржевая, 4B02-421-01481-B-001P Облигация биржевая, 4B02-422-01481-B-001P, RU000A103976 Облигация биржевая, 4B02-424-01481-B-001P, RU000A103TN1 Облигация биржевая, 4B02-426-01481-B-001P, RU000A102SU0 Облигация биржевая, 4B02-423-01481-B-001P, RU000A102RC0 Облигация биржевая, 4B02-425-01481-B-001P, RU000A102RD8 Облигация биржевая, 4B02-427-01481-B-001P, RU000A102RE6 Облигация биржевая, 4B02-430-01481-B-001P, RU000A102RR8 Облигация биржевая, 4B02-433-01481-B-001P, RU000A102TD4 Облигация биржевая, 4B02-434-01481-B-001P, RU000A102TH5 Облигация биржевая, 4B02-435-01481-B-001P, RU000A102VD0 Облигация биржевая, 4B02-438-01481-B-001P, RU000A102W50 Облигация биржевая, 4B02-436-01481-B-001P, RU000A102W35 Облигация биржевая, 4B02-439-01481-B-001P, RU000A102WB2 Облигация биржевая, 4B02-440-01481-B-001P, RU000A102WC0 Облигация биржевая, 4B02-441-01481-B-001P, RU000A102X26 Облигация биржевая, 4B02-443-01481-B-001P, RU000A102YH5 Облигация биржевая, 4B02-442-01481-B-001P, RU000A102YG7 Облигация биржевая, 4B02-444-01481-B-001P, RU000A102ZZ4 Облигация биржевая, 4B02-445-01481-B-001P, RU000A103299 Облигация биржевая, 4B02-446-01481-B-001P, RU000A1031H0 Облигация биржевая, 4B02-448-01481-B-001P, RU000A103216 Облигация биржевая, 4B02-449-01481-B-001P, RU000A103273 Облигация биржевая, 4B02-450-01481-B-001P, RU000A1032C9 Облигация биржевая, 4B02-451-01481-B-001P, RU000A1032N6 Облигация биржевая, 4B02-452-01481-B-001P, RU000A1032K2 Облигация биржевая, 4B02-453-01481-B-001P, RU000A1032L0 Облигация биржевая, 4B02-454-01481-B-001P, RU000A103471 Облигация биржевая, 4B02-455-01481-B-001P, RU000A103539 Облигация биржевая, 4B02-457-01481-B-001P, RU000A103588 Облигация биржевая, 4B02-458-01481-B-001P, RU000A103596 Облигация биржевая, 4B02-459-01481-B-001P, RU000A103661 Облигация биржевая, 4B02-460-01481-B-001P, RU000A1038U8 Облигация биржевая, 4B02-461-01481-B-001P, RU000A103AF7 Облигация биржевая, 4B02-464-01481-B-001P, RU000A103AM3 Облигация биржевая, 4B02-465-01481-B-001P, RU000A103AP6 Облигация биржевая, 4B02-463-01481-B-001P, RU000A103AL5 Облигация биржевая, 4B02-466-01481-B-001P, RU000A103C79 Облигация биржевая, 4B02-467-01481-B-001P, RU000A103C87 Облигация биржевая, 4B02-468-01481-B-001P, RU000A103CP2 Облигация биржевая, 4B02-469-01481-B-001P, RU000A103CR8 Облигация биржевая, 4B02-474-01481-B-001P, RU000A103G42 Облигация биржевая, 4B02-475-01481-B-001P, RU000A103G59 Облигация биржевая, 4B02-476-01481-B-001P Облигация биржевая, 4B02-470-01481-B-001P, RU000A103F92 Облигация биржевая, 4B02-471-01481-B-001P, RU000A103FA7 Облигация биржевая, 4B02-472-01481-B-001P, RU000A103FB5 Облигация биржевая, 4B02-473-01481-B-001P, RU000A103FM2 Облигация биржевая, 4B02-478-01481-B-001P, RU000A103H66 Облигация биржевая, 4B02-479-01481-B-001P, RU000A103HE5 Облигация биржевая, 4B02-480-01481-B-001P, RU000A103JB7 Облигация биржевая, 4B02-481-01481-B-001P, RU000A103KG4 Облигация биржевая, 4B02-483-01481-B-001P, RU000A103LE7 Облигация биржевая, 4B02-482-01481-B-001P, RU000A103LD9 Облигация биржевая, 4B02-485-01481-B-001P, RU000A103LG2 Облигация биржевая, 4B02-484-01481-B-001P, RU000A103LF4 Облигация биржевая, 4B02-486-01481-B-001P, RU000A103MW7 Облигация биржевая, 4B02-487-01481-B-001P, RU000A103P25 Облигация биржевая, 4B02-488-01481-B-001P, RU000A103PF5 Облигация биржевая, 4B02-489-01481-B-001P, RU000A103PH1 Облигация корпоративная, 4-03-01481-B-002P, RU000A103Q24 Облигация корпоративная, 4-04-01481-B-002P, RU000A103QW8 Облигация биржевая, 4B02-490-01481-B-001P, RU000A103RU0 Облигация биржевая, 4B02-491-01481-B-001P, RU000A103RV8 Облигация биржевая, 4B02-492-01481-B-001P, RU000A103RW6 Облигация корпоративная, 4-05-01481-B-002P, RU000A103QX6 Облигация биржевая, 4B02-493-01481-B-001P, RU000A103RX4 Облигация биржевая, 4B02-497-01481-B-001P, RU000A103V84 Облигация биржевая, 4B02-494-01481-B-001P, RU000A103UP4 Облигация биржевая, 4B02-495-01481-B-001P, RU000A103UQ2 Облигация биржевая, 4B02-496-01481-B-001P, RU000A103UR0 Облигация биржевая, 4B02-498-01481-B-001P, RU000A103VP2 Облигация биржевая, 4B02-499-01481-B-001P, RU000A103VQ0 Облигация биржевая, 4B02-500-01481-B-001P, RU000A103WV8 Облигация биржевая, 4B02-501-01481-B-001P, RU000A103X90 Облигация биржевая, 4B02-506-01481-B-001P, RU000A103Y57 Облигация биржевая, 4B02-505-01481-B-001P, RU000A103Y40 Облигация биржевая, 4B02-502-01481-B-001P Облигация биржевая, 4B02-503-01481-B-001P, RU000A103Y16 Облигация биржевая, 4B02-504-01481-B-001P, RU000A103Y32 Облигация биржевая, 4B02-507-01481-B-001P, RU000A103YV4 Облигация биржевая, 4B02-508-01481-B-001P Облигация биржевая, 4B02-509-01481-B-001P, RU000A103ZJ6 Облигация биржевая, 4B02-510-01481-B-001P, RU000A103ZH0 Облигация биржевая, 4B02-511-01481-B-001P, RU000A1040J7 Облигация биржевая, 4B02-512-01481-B-001P, RU000A1040T6 Облигация биржевая, 4B02-513-01481-B-001P, RU000A1040U4 Облигация биржевая, 4B02-514-01481-B-001P, RU000A1040Y6 Облигация биржевая, 4B02-515-01481-B-001P, RU000A1041N7 Облигация биржевая, 4B02-516-01481-B-001P, RU000A1041M9 Облигация биржевая, 4B02-517-01481-B-001P, RU000A1043H5 Облигация биржевая, 4B02-518-01481-B-001P, RU000A1044Z5 Облигация биржевая, 4B02-519-01481-B-001P, RU000A1044Y8 Облигация биржевая, 4B02-520-01481-B-001P, RU000A1044X0 Облигация биржевая, 4B02-521-01481-B-001P, RU000A1044W2 Облигация биржевая, 4B02-522-01481-B-001P, RU000A1044V4 Облигация биржевая, 4B02-523-01481-B-001P, RU000A1045F4 Облигация биржевая, 4B02-525-01481-B-001P Облигация биржевая, 4B02-524-01481-B-001P, RU000A104644 Облигация биржевая, 4B02-526-01481-B-001P, RU000A1047L8 Облигация биржевая, 4B02-527-01481-B-001P, RU000A1047M6 Облигация биржевая, 4B02-528-01481-B-001P, RU000A1047N4 Облигация биржевая, 4B02-529-01481-B-001P, RU000A1047P9 Облигация биржевая, 4B02-530-01481-B-001P, RU000A1049R1 Облигация биржевая, 4B02-531-01481-B-001P, RU000A104A96 Облигация биржевая, 4B02-535-01481-B-001P, RU000A104AH1 Облигация биржевая, 4B02-534-01481-B-001P, RU000A104AG3 Облигация биржевая, 4B02-533-01481-B-001P, RU000A104AF5 Облигация биржевая, 4B02-532-01481-B-001P, RU000A104AE8 Облигация биржевая, 4B02-538-01481-B-001P, RU000A104CY2 Облигация биржевая, 4B02-539-01481-B-001P, RU000A104CZ9 Облигация биржевая, 4B02-537-01481-B-001P, RU000A104CS4 Облигация биржевая, 4B02-536-01481-B-001P, RU000A104CR6 Облигация биржевая, 4B02-540-01481-B-001P, RU000A104ES0 Облигация биржевая, 4B02-541-01481-B-001P, RU000A104FL2 Облигация биржевая, 4B02-542-01481-B-001P, RU000A104FK4 Облигация биржевая, 4B02-544-01481-B-001P, RU000A104FH0 Облигация биржевая, 4B02-546-01481-B-001P, RU000A104FZ2 Облигация биржевая, 4B02-548-01481-B-001P, RU000A104H08 Облигация биржевая, 4B02-549-01481-B-001P, RU000A104JY7 Облигация биржевая, 4B02-550-01481-B-001P, RU000A104JX9 Облигация биржевая, 4B02-551-01481-B-001P, RU000A104KE7 Облигация биржевая, 4B02-552-01481-B-001P, RU000A104KK4 Облигация биржевая, 4B02-553-01481-B-001P, RU000A104KL2 Облигация биржевая, 4B02-554-01481-B-001P, RU000A104KX7 Облигация биржевая, 4B02-555-01481-B-001P, RU000A104KY5 Облигация биржевая, 4B02-556-01481-B-001P, RU000A104KZ2 Облигация биржевая, 4B02-558-01481-B-001P Облигация биржевая, 4B02-557-01481-B-001P, RU000A104L02 Облигация биржевая, 4B02-559-01481-B-001P, RU000A105179 Облигация биржевая, 4B02-560-01481-B-001P, RU000A105161 Облигация биржевая, 4B02-561-01481-B-001P, RU000A105401 Облигация биржевая, 4B02-562-01481-B-001P, RU000A1054X9 Облигация биржевая, 4B02-563-01481-B-001P, RU000A105666 Облигация биржевая, 4B02-564-01481-B-001P Облигация биржевая, 4B02-565-01481-B-001P, RU000A1057K9 Облигация биржевая, 4B02-566-01481-B-001P Облигация биржевая, 4B02-568-01481-B-001P, RU000A1059D0 Облигация биржевая, 4B02-570-01481-B-001P, RU000A105BK0 Облигация биржевая, 4B02-572-01481-B-001P, RU000A105GQ6 Облигация биржевая, 4B02-575-01481-B-001P, RU000A105MD2 Облигация биржевая, 4B02-577-01481-B-001P, RU000A105PA1 Облигация биржевая, 4B02-579-01481-B-001P, RU000A105R96 Облигация биржевая, 4B02-581-01481-B-001P, RU000A105S87 Облигация биржевая, 4B02-582-01481-B-001P, RU000A105SD9 Облигация биржевая, 4B02-583-01481-B-001P Облигация биржевая, 4B02-586-01481-B-001P, RU000A105W57 Облигация биржевая, 4B02-587-01481-B-001P, RU000A105WX9 Облигация биржевая, 4B02-589-01481-B-001P, RU000A105ZR4 Облигация биржевая, 4B02-590-01481-B-001P, RU000A1061E4 Облигация биржевая, 4B02-593-01481-B-001P, RU000A1065F2 Облигация биржевая, 4B02-594-01481-B-001P, RU000A1067A9 Облигация биржевая, 4B02-02-01481-B-002P, RU000A1069P3 Облигация биржевая, 4B02-596-01481-B-001P, RU000A106AB9 Облигация биржевая, 4B02-598-01481-B-001P, RU000A106AQ7 Облигация биржевая, 4B02-597-01481-B-001P, RU000A106AP9 Облигация биржевая, 4B02-600-01481-B-001P, RU000A106D83 Облигация биржевая, 4B02-603-01481-B-001P, RU000A106EX5 Облигация биржевая, 4B02-604-01481-B-001P, RU000A106G64 Облигация биржевая, 4B02-606-01481-B-001P Облигация биржевая, 4B02-607-01481-B-001P, RU000A106L18 Облигация биржевая, 4B02-609-01481-B-001P, RU000A106M09 Облигация биржевая, 4B02-608-01481-B-001P, RU000A106LZ5 Облигация биржевая, 4B02-610-01481-B-001P, RU000A106QL4 Облигация биржевая, 4B02-611-01481-B-001P, RU000A106RY5 Облигация биржевая, 4B02-612-01481-B-001P, RU000A106SD7 Облигация биржевая, 4B02-613-01481-B-001P, RU000A106TT1 Облигация биржевая, 4B02-614-01481-B-001P, RU000A106TU9 Облигация биржевая, 4B02-615-01481-B-001P, RU000A106V99 Облигация биржевая, 4B02-616-01481-B-001P, RU000A106XQ9 Облигация биржевая, 4B02-619-01481-B-001P, RU000A106YU9 Облигация биржевая, 4B02-617-01481-B-001P, RU000A106XR7 Облигация биржевая, 4B02-618-01481-B-001P, RU000A106Y96 Облигация биржевая, 4B02-620-01481-B-001P, RU000A107464 Облигация биржевая, 4B02-621-01481-B-001P, RU000A1074S7 Облигация биржевая, 4B02-622-01481-B-001P, RU000A107514 Облигация биржевая, 4B02-623-01481-B-001P, RU000A107704 Облигация биржевая, 4B02-624-01481-B-001P, RU000A107845 Облигация биржевая, 4B02-625-01481-B-001P, RU000A107985 Облигация биржевая, 4B02-626-01481-B-001P, RU000A1079B2 Облигация биржевая, 4B02-03-01481-B-002P Облигация биржевая, 4B02-04-01481-B-002P Облигация биржевая, 4B02-628-01481-B-001P, RU000A107DB1 Облигация биржевая, 4B02-629-01481-B-001P, RU000A107DC9 Облигация биржевая, 4B02-630-01481-B-001P, RU000A107J45 Облигация биржевая, 4B02-631-01481-B-001P, RU000A107P88 Облигация биржевая, 4B02-632-01481-B-001P, RU000A107Q04 Облигация биржевая, 4B02-633-01481-B-001P, RU000A107RW7 Облигация биржевая, 4B02-636-01481-B-001P, RU000A107S77 Облигация биржевая, 4B02-635-01481-B-001P, RU000A107S69 Облигация биржевая, 4B02-634-01481-B-001P, RU000A107S51 Облигация биржевая, 4B02-637-01481-B-001P, RU000A107SR5 Облигация биржевая, 4B02-638-01481-B-001P, RU000A107UR1 Облигация биржевая, 4B02-639-01481-B-001P, RU000A107W97 Облигация биржевая, 4B02-640-01481-B-001P, RU000A107Y46 Облигация биржевая, 4B02-641-01481-B-001P, RU000A1080R6 Облигация биржевая, 4B02-642-01481-B-001P, RU000A1080T2 Облигация биржевая, 4B02-643-01481-B-001P, RU000A1080W6 Облигация биржевая, 4B02-644-01481-B-001P, RU000A108413 Облигация биржевая, 4B02-645-01481-B-001P, RU000A108421 Облигация биржевая, 4B02-646-01481-B-001P, RU000A1088K4 Облигация биржевая, 4B02-647-01481-B-001P, RU000A1088L2 Облигация биржевая, 4B02-648-01481-B-001P, RU000A108C09 Облигация биржевая, 4B02-649-01481-B-001P, RU000A108DG8 Облигация биржевая, 4B02-650-01481-B-001P</t>
   </si>
   <si>
     <t>Облигация биржевая, 4B02-06-00143-A, RU000A1008W7 Облигация биржевая, 4B02-07-00143-A, RU000A1008L0 Облигация биржевая, 4B02-08-00143-A Облигация биржевая, 4B02-09-00143-A</t>
@@ -8461,7 +8461,7 @@
     <t>https://www.rusagrogroup.ru/ru/investoram/</t>
   </si>
   <si>
-    <t>https://www.x5.ru/ru/investors/</t>
+    <t>https://x5.com/en/regulatory-news/</t>
   </si>
   <si>
     <t>http://www.alrosa.ru/инвесторам-и-акционерам/</t>
@@ -19079,7 +19079,7 @@
         <v>306</v>
       </c>
       <c r="E118" t="s">
-        <v>150</v>
+        <v>421</v>
       </c>
       <c r="F118" t="s">
         <v>561</v>
@@ -19153,7 +19153,7 @@
         <v>306</v>
       </c>
       <c r="E119" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F119" t="s">
         <v>561</v>
@@ -19227,7 +19227,7 @@
         <v>306</v>
       </c>
       <c r="E120" t="s">
-        <v>422</v>
+        <v>150</v>
       </c>
       <c r="F120" t="s">
         <v>561</v>
